--- a/managementcmdfiles/columns.xlsx
+++ b/managementcmdfiles/columns.xlsx
@@ -7505,7 +7505,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7516,6 +7516,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -7567,7 +7573,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -7630,6 +7636,22 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -7716,9 +7738,9 @@
   <dimension ref="A1:L1326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B188" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B76" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J189" activeCellId="0" sqref="J189"/>
+      <selection pane="bottomLeft" activeCell="D90" activeCellId="0" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8024,16 +8046,16 @@
       <c r="C13" s="7" t="n">
         <v>90163</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="17" t="n">
         <v>130</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="14" t="n">
+      <c r="G13" s="19" t="n">
         <v>10002</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -8062,16 +8084,16 @@
       <c r="C14" s="7" t="n">
         <v>90163</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="17" t="n">
         <v>130</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="14" t="n">
+      <c r="G14" s="19" t="n">
         <v>10003</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -8442,16 +8464,16 @@
       <c r="C24" s="7" t="n">
         <v>90163</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="17" t="n">
         <v>130</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="14" t="n">
+      <c r="G24" s="19" t="n">
         <v>10013</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -8472,16 +8494,16 @@
       <c r="C25" s="7" t="n">
         <v>90163</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="17" t="n">
         <v>130</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G25" s="14" t="n">
+      <c r="G25" s="19" t="n">
         <v>10014</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -8556,7 +8578,7 @@
       <c r="A29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C29" s="8" t="n">
@@ -8565,7 +8587,7 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-      <c r="G29" s="17"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="12"/>
       <c r="I29" s="5"/>
       <c r="J29" s="8"/>
@@ -8585,7 +8607,7 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-      <c r="G30" s="17"/>
+      <c r="G30" s="21"/>
       <c r="H30" s="12"/>
       <c r="I30" s="5"/>
       <c r="J30" s="8"/>
@@ -8625,7 +8647,7 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="17"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="12"/>
       <c r="I32" s="5"/>
       <c r="J32" s="8"/>
@@ -8651,7 +8673,7 @@
       <c r="F33" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="18" t="n">
+      <c r="G33" s="22" t="n">
         <v>130001</v>
       </c>
       <c r="H33" s="12" t="s">
@@ -8685,7 +8707,7 @@
       <c r="F34" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G34" s="18" t="n">
+      <c r="G34" s="22" t="n">
         <v>130002</v>
       </c>
       <c r="H34" s="12" t="s">
@@ -8723,7 +8745,7 @@
       <c r="F35" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G35" s="18" t="n">
+      <c r="G35" s="22" t="n">
         <v>130003</v>
       </c>
       <c r="H35" s="12" t="s">
@@ -8761,7 +8783,7 @@
       <c r="F36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="18" t="n">
+      <c r="G36" s="22" t="n">
         <v>130004</v>
       </c>
       <c r="H36" s="12" t="s">
@@ -8799,7 +8821,7 @@
       <c r="F37" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="18" t="n">
+      <c r="G37" s="22" t="n">
         <v>130005</v>
       </c>
       <c r="H37" s="12" t="s">
@@ -8831,7 +8853,7 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="17"/>
+      <c r="G38" s="21"/>
       <c r="H38" s="12"/>
       <c r="I38" s="5"/>
       <c r="J38" s="8"/>
@@ -8870,7 +8892,7 @@
       <c r="K39" s="7" t="n">
         <v>97003</v>
       </c>
-      <c r="L39" s="19" t="s">
+      <c r="L39" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -8908,7 +8930,7 @@
       <c r="K40" s="7" t="n">
         <v>97001</v>
       </c>
-      <c r="L40" s="19" t="s">
+      <c r="L40" s="23" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8946,7 +8968,7 @@
       <c r="K41" s="7" t="n">
         <v>97001</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="L41" s="23" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9020,7 +9042,7 @@
       <c r="K43" s="7" t="n">
         <v>97001</v>
       </c>
-      <c r="L43" s="19" t="s">
+      <c r="L43" s="23" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9058,7 +9080,7 @@
       <c r="K44" s="7" t="n">
         <v>97001</v>
       </c>
-      <c r="L44" s="19" t="s">
+      <c r="L44" s="23" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9081,7 +9103,7 @@
       <c r="F45" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="G45" s="18" t="n">
+      <c r="G45" s="22" t="n">
         <v>160001</v>
       </c>
       <c r="H45" s="12" t="s">
@@ -9113,7 +9135,7 @@
       <c r="F46" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="18" t="n">
+      <c r="G46" s="22" t="n">
         <v>160002</v>
       </c>
       <c r="H46" s="7" t="s">
@@ -9151,7 +9173,7 @@
       <c r="F47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="18" t="n">
+      <c r="G47" s="22" t="n">
         <v>160003</v>
       </c>
       <c r="H47" s="7"/>
@@ -9179,7 +9201,7 @@
       <c r="F48" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="18" t="n">
+      <c r="G48" s="22" t="n">
         <v>160004</v>
       </c>
       <c r="H48" s="7" t="s">
@@ -9217,7 +9239,7 @@
       <c r="F49" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G49" s="18" t="n">
+      <c r="G49" s="22" t="n">
         <v>160005</v>
       </c>
       <c r="H49" s="7"/>
@@ -9247,7 +9269,7 @@
       <c r="F50" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G50" s="18" t="n">
+      <c r="G50" s="22" t="n">
         <v>160006</v>
       </c>
       <c r="H50" s="7"/>
@@ -9277,7 +9299,7 @@
       <c r="F51" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G51" s="18" t="n">
+      <c r="G51" s="22" t="n">
         <v>160007</v>
       </c>
       <c r="H51" s="7"/>
@@ -9307,7 +9329,7 @@
       <c r="F52" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="18" t="n">
+      <c r="G52" s="22" t="n">
         <v>160008</v>
       </c>
       <c r="H52" s="7"/>
@@ -9337,7 +9359,7 @@
       <c r="F53" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="G53" s="18" t="n">
+      <c r="G53" s="22" t="n">
         <v>160009</v>
       </c>
       <c r="H53" s="7"/>
@@ -9367,7 +9389,7 @@
       <c r="F54" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="G54" s="18" t="n">
+      <c r="G54" s="22" t="n">
         <v>160010</v>
       </c>
       <c r="H54" s="7"/>
@@ -9397,7 +9419,7 @@
       <c r="F55" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="G55" s="18" t="n">
+      <c r="G55" s="22" t="n">
         <v>160011</v>
       </c>
       <c r="H55" s="7"/>
@@ -9427,7 +9449,7 @@
       <c r="F56" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="G56" s="18" t="n">
+      <c r="G56" s="22" t="n">
         <v>160012</v>
       </c>
       <c r="H56" s="7"/>
@@ -9457,7 +9479,7 @@
       <c r="F57" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="G57" s="18" t="n">
+      <c r="G57" s="22" t="n">
         <v>160013</v>
       </c>
       <c r="H57" s="7"/>
@@ -9487,7 +9509,7 @@
       <c r="F58" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="18" t="n">
+      <c r="G58" s="22" t="n">
         <v>160014</v>
       </c>
       <c r="H58" s="7"/>
@@ -9517,7 +9539,7 @@
       <c r="F59" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="G59" s="18" t="n">
+      <c r="G59" s="22" t="n">
         <v>160015</v>
       </c>
       <c r="H59" s="7"/>
@@ -9547,7 +9569,7 @@
       <c r="F60" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="G60" s="18" t="n">
+      <c r="G60" s="22" t="n">
         <v>160016</v>
       </c>
       <c r="H60" s="7"/>
@@ -9577,7 +9599,7 @@
       <c r="F61" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="G61" s="18" t="n">
+      <c r="G61" s="22" t="n">
         <v>160017</v>
       </c>
       <c r="H61" s="7"/>
@@ -9607,7 +9629,7 @@
       <c r="F62" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="G62" s="18" t="n">
+      <c r="G62" s="22" t="n">
         <v>160018</v>
       </c>
       <c r="H62" s="7"/>
@@ -10222,7 +10244,7 @@
         <v>36</v>
       </c>
       <c r="K81" s="7"/>
-      <c r="L81" s="19" t="s">
+      <c r="L81" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10258,7 +10280,7 @@
         <v>41</v>
       </c>
       <c r="K82" s="7"/>
-      <c r="L82" s="19" t="s">
+      <c r="L82" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10294,7 +10316,7 @@
         <v>60</v>
       </c>
       <c r="K83" s="7"/>
-      <c r="L83" s="19" t="s">
+      <c r="L83" s="23" t="s">
         <v>216</v>
       </c>
     </row>
@@ -10330,7 +10352,7 @@
         <v>60</v>
       </c>
       <c r="K84" s="7"/>
-      <c r="L84" s="19" t="s">
+      <c r="L84" s="23" t="s">
         <v>219</v>
       </c>
     </row>
@@ -10366,7 +10388,7 @@
         <v>60</v>
       </c>
       <c r="K85" s="7"/>
-      <c r="L85" s="19" t="s">
+      <c r="L85" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10389,7 +10411,7 @@
       <c r="F86" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="G86" s="18" t="n">
+      <c r="G86" s="22" t="n">
         <v>200010</v>
       </c>
       <c r="H86" s="5" t="s">
@@ -10402,7 +10424,7 @@
         <v>60</v>
       </c>
       <c r="K86" s="7"/>
-      <c r="L86" s="19" t="s">
+      <c r="L86" s="23" t="s">
         <v>227</v>
       </c>
     </row>
@@ -10438,7 +10460,7 @@
         <v>60</v>
       </c>
       <c r="K87" s="7"/>
-      <c r="L87" s="19" t="s">
+      <c r="L87" s="23" t="s">
         <v>231</v>
       </c>
     </row>
@@ -10474,7 +10496,7 @@
         <v>60</v>
       </c>
       <c r="K88" s="7"/>
-      <c r="L88" s="19" t="s">
+      <c r="L88" s="23" t="s">
         <v>235</v>
       </c>
     </row>
@@ -10510,7 +10532,7 @@
         <v>60</v>
       </c>
       <c r="K89" s="7"/>
-      <c r="L89" s="19" t="s">
+      <c r="L89" s="23" t="s">
         <v>239</v>
       </c>
     </row>
@@ -10557,7 +10579,7 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-      <c r="G91" s="17"/>
+      <c r="G91" s="21"/>
       <c r="H91" s="12"/>
       <c r="I91" s="5"/>
       <c r="J91" s="8"/>
@@ -10577,7 +10599,7 @@
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-      <c r="G92" s="17"/>
+      <c r="G92" s="21"/>
       <c r="H92" s="12"/>
       <c r="I92" s="5"/>
       <c r="J92" s="8"/>
@@ -10634,7 +10656,7 @@
         <v>36</v>
       </c>
       <c r="K94" s="7"/>
-      <c r="L94" s="19" t="s">
+      <c r="L94" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -10670,7 +10692,7 @@
         <v>41</v>
       </c>
       <c r="K95" s="7"/>
-      <c r="L95" s="19" t="s">
+      <c r="L95" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10706,7 +10728,7 @@
         <v>60</v>
       </c>
       <c r="K96" s="7"/>
-      <c r="L96" s="19" t="s">
+      <c r="L96" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -10742,7 +10764,7 @@
         <v>60</v>
       </c>
       <c r="K97" s="7"/>
-      <c r="L97" s="19" t="s">
+      <c r="L97" s="23" t="s">
         <v>253</v>
       </c>
     </row>
@@ -10778,7 +10800,7 @@
         <v>60</v>
       </c>
       <c r="K98" s="7"/>
-      <c r="L98" s="19" t="s">
+      <c r="L98" s="23" t="s">
         <v>257</v>
       </c>
     </row>
@@ -10814,7 +10836,7 @@
         <v>60</v>
       </c>
       <c r="K99" s="7"/>
-      <c r="L99" s="19" t="s">
+      <c r="L99" s="23" t="s">
         <v>260</v>
       </c>
     </row>
@@ -10831,7 +10853,7 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
-      <c r="G100" s="17"/>
+      <c r="G100" s="21"/>
       <c r="H100" s="12"/>
       <c r="I100" s="5"/>
       <c r="J100" s="8"/>
@@ -12572,7 +12594,7 @@
       <c r="I169" s="5"/>
       <c r="J169" s="8"/>
       <c r="K169" s="7"/>
-      <c r="L169" s="19" t="s">
+      <c r="L169" s="23" t="s">
         <v>409</v>
       </c>
     </row>
@@ -13110,7 +13132,7 @@
       <c r="G190" s="14" t="n">
         <v>220001</v>
       </c>
-      <c r="H190" s="20" t="s">
+      <c r="H190" s="24" t="s">
         <v>35</v>
       </c>
       <c r="I190" s="5"/>
@@ -13118,7 +13140,7 @@
         <v>36</v>
       </c>
       <c r="K190" s="7"/>
-      <c r="L190" s="21" t="s">
+      <c r="L190" s="25" t="s">
         <v>37</v>
       </c>
     </row>
@@ -13148,7 +13170,7 @@
         <v>36</v>
       </c>
       <c r="K191" s="7"/>
-      <c r="L191" s="19" t="s">
+      <c r="L191" s="23" t="s">
         <v>198</v>
       </c>
     </row>
@@ -13206,7 +13228,7 @@
         <v>36</v>
       </c>
       <c r="K193" s="7"/>
-      <c r="L193" s="19" t="s">
+      <c r="L193" s="23" t="s">
         <v>461</v>
       </c>
     </row>
@@ -13242,7 +13264,7 @@
         <v>41</v>
       </c>
       <c r="K194" s="7"/>
-      <c r="L194" s="19" t="s">
+      <c r="L194" s="23" t="s">
         <v>316</v>
       </c>
     </row>
@@ -13276,7 +13298,7 @@
         <v>36</v>
       </c>
       <c r="K195" s="7"/>
-      <c r="L195" s="19" t="s">
+      <c r="L195" s="23" t="s">
         <v>466</v>
       </c>
     </row>
@@ -13310,7 +13332,7 @@
         <v>36</v>
       </c>
       <c r="K196" s="7"/>
-      <c r="L196" s="19" t="s">
+      <c r="L196" s="23" t="s">
         <v>470</v>
       </c>
     </row>
@@ -13342,7 +13364,7 @@
         <v>36</v>
       </c>
       <c r="K197" s="7"/>
-      <c r="L197" s="19"/>
+      <c r="L197" s="23"/>
     </row>
     <row r="198" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
@@ -13374,7 +13396,7 @@
         <v>36</v>
       </c>
       <c r="K198" s="7"/>
-      <c r="L198" s="19" t="s">
+      <c r="L198" s="23" t="s">
         <v>476</v>
       </c>
     </row>
@@ -13408,7 +13430,7 @@
         <v>36</v>
       </c>
       <c r="K199" s="7"/>
-      <c r="L199" s="19" t="s">
+      <c r="L199" s="23" t="s">
         <v>480</v>
       </c>
     </row>
@@ -13442,7 +13464,7 @@
         <v>36</v>
       </c>
       <c r="K200" s="7"/>
-      <c r="L200" s="19" t="s">
+      <c r="L200" s="23" t="s">
         <v>484</v>
       </c>
     </row>
@@ -13476,7 +13498,7 @@
         <v>36</v>
       </c>
       <c r="K201" s="7"/>
-      <c r="L201" s="19" t="s">
+      <c r="L201" s="23" t="s">
         <v>488</v>
       </c>
     </row>
@@ -13510,7 +13532,7 @@
         <v>36</v>
       </c>
       <c r="K202" s="7"/>
-      <c r="L202" s="19" t="s">
+      <c r="L202" s="23" t="s">
         <v>492</v>
       </c>
     </row>
@@ -13544,7 +13566,7 @@
         <v>60</v>
       </c>
       <c r="K203" s="7"/>
-      <c r="L203" s="19"/>
+      <c r="L203" s="23"/>
     </row>
     <row r="204" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
@@ -13578,7 +13600,7 @@
         <v>60</v>
       </c>
       <c r="K204" s="7"/>
-      <c r="L204" s="19" t="s">
+      <c r="L204" s="23" t="s">
         <v>498</v>
       </c>
     </row>
@@ -13614,7 +13636,7 @@
         <v>60</v>
       </c>
       <c r="K205" s="7"/>
-      <c r="L205" s="19" t="s">
+      <c r="L205" s="23" t="s">
         <v>502</v>
       </c>
     </row>
@@ -13650,7 +13672,7 @@
         <v>60</v>
       </c>
       <c r="K206" s="7"/>
-      <c r="L206" s="19" t="s">
+      <c r="L206" s="23" t="s">
         <v>505</v>
       </c>
     </row>
@@ -13684,7 +13706,7 @@
         <v>60</v>
       </c>
       <c r="K207" s="7"/>
-      <c r="L207" s="19" t="s">
+      <c r="L207" s="23" t="s">
         <v>507</v>
       </c>
     </row>
@@ -13720,7 +13742,7 @@
         <v>60</v>
       </c>
       <c r="K208" s="7"/>
-      <c r="L208" s="19" t="s">
+      <c r="L208" s="23" t="s">
         <v>509</v>
       </c>
     </row>
@@ -13754,7 +13776,7 @@
         <v>36</v>
       </c>
       <c r="K209" s="7"/>
-      <c r="L209" s="19" t="s">
+      <c r="L209" s="23" t="s">
         <v>512</v>
       </c>
     </row>
@@ -13788,7 +13810,7 @@
         <v>36</v>
       </c>
       <c r="K210" s="7"/>
-      <c r="L210" s="19" t="s">
+      <c r="L210" s="23" t="s">
         <v>515</v>
       </c>
     </row>
@@ -13822,7 +13844,7 @@
         <v>36</v>
       </c>
       <c r="K211" s="7"/>
-      <c r="L211" s="19" t="s">
+      <c r="L211" s="23" t="s">
         <v>518</v>
       </c>
     </row>
@@ -13858,7 +13880,7 @@
         <v>60</v>
       </c>
       <c r="K212" s="7"/>
-      <c r="L212" s="19" t="s">
+      <c r="L212" s="23" t="s">
         <v>521</v>
       </c>
     </row>
@@ -13888,7 +13910,7 @@
         <v>36</v>
       </c>
       <c r="K213" s="7"/>
-      <c r="L213" s="19" t="s">
+      <c r="L213" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -13909,7 +13931,7 @@
         <v>220</v>
       </c>
       <c r="F214" s="8"/>
-      <c r="G214" s="17"/>
+      <c r="G214" s="21"/>
       <c r="H214" s="5" t="s">
         <v>524</v>
       </c>
@@ -13918,7 +13940,7 @@
         <v>36</v>
       </c>
       <c r="K214" s="7"/>
-      <c r="L214" s="19" t="s">
+      <c r="L214" s="23" t="s">
         <v>525</v>
       </c>
     </row>
@@ -14226,7 +14248,7 @@
         <v>36</v>
       </c>
       <c r="K225" s="7"/>
-      <c r="L225" s="19" t="s">
+      <c r="L225" s="23" t="s">
         <v>407</v>
       </c>
     </row>
@@ -14260,7 +14282,7 @@
         <v>36</v>
       </c>
       <c r="K226" s="7"/>
-      <c r="L226" s="19" t="s">
+      <c r="L226" s="23" t="s">
         <v>558</v>
       </c>
     </row>
@@ -14294,7 +14316,7 @@
         <v>36</v>
       </c>
       <c r="K227" s="7"/>
-      <c r="L227" s="19" t="s">
+      <c r="L227" s="23" t="s">
         <v>561</v>
       </c>
     </row>
@@ -14328,7 +14350,7 @@
         <v>36</v>
       </c>
       <c r="K228" s="7"/>
-      <c r="L228" s="19" t="s">
+      <c r="L228" s="23" t="s">
         <v>565</v>
       </c>
     </row>
@@ -14362,7 +14384,7 @@
         <v>36</v>
       </c>
       <c r="K229" s="7"/>
-      <c r="L229" s="19" t="s">
+      <c r="L229" s="23" t="s">
         <v>569</v>
       </c>
     </row>
@@ -14396,7 +14418,7 @@
         <v>36</v>
       </c>
       <c r="K230" s="7"/>
-      <c r="L230" s="19" t="s">
+      <c r="L230" s="23" t="s">
         <v>571</v>
       </c>
     </row>
@@ -14430,7 +14452,7 @@
         <v>36</v>
       </c>
       <c r="K231" s="7"/>
-      <c r="L231" s="19" t="s">
+      <c r="L231" s="23" t="s">
         <v>575</v>
       </c>
     </row>
@@ -14462,7 +14484,7 @@
         <v>36</v>
       </c>
       <c r="K232" s="7"/>
-      <c r="L232" s="19" t="s">
+      <c r="L232" s="23" t="s">
         <v>579</v>
       </c>
     </row>
@@ -14496,7 +14518,7 @@
         <v>36</v>
       </c>
       <c r="K233" s="7"/>
-      <c r="L233" s="19" t="s">
+      <c r="L233" s="23" t="s">
         <v>583</v>
       </c>
     </row>
@@ -14530,7 +14552,7 @@
         <v>36</v>
       </c>
       <c r="K234" s="7"/>
-      <c r="L234" s="19" t="s">
+      <c r="L234" s="23" t="s">
         <v>587</v>
       </c>
     </row>
@@ -14564,7 +14586,7 @@
         <v>36</v>
       </c>
       <c r="K235" s="7"/>
-      <c r="L235" s="19" t="s">
+      <c r="L235" s="23" t="s">
         <v>591</v>
       </c>
     </row>
@@ -14598,7 +14620,7 @@
         <v>36</v>
       </c>
       <c r="K236" s="7"/>
-      <c r="L236" s="19" t="s">
+      <c r="L236" s="23" t="s">
         <v>594</v>
       </c>
     </row>
@@ -14632,7 +14654,7 @@
         <v>36</v>
       </c>
       <c r="K237" s="7"/>
-      <c r="L237" s="19" t="s">
+      <c r="L237" s="23" t="s">
         <v>598</v>
       </c>
     </row>
@@ -14666,7 +14688,7 @@
         <v>36</v>
       </c>
       <c r="K238" s="7"/>
-      <c r="L238" s="19" t="s">
+      <c r="L238" s="23" t="s">
         <v>602</v>
       </c>
     </row>
@@ -14700,7 +14722,7 @@
         <v>36</v>
       </c>
       <c r="K239" s="7"/>
-      <c r="L239" s="19" t="s">
+      <c r="L239" s="23" t="s">
         <v>605</v>
       </c>
     </row>
@@ -14734,7 +14756,7 @@
         <v>36</v>
       </c>
       <c r="K240" s="7"/>
-      <c r="L240" s="19" t="s">
+      <c r="L240" s="23" t="s">
         <v>609</v>
       </c>
     </row>
@@ -14768,7 +14790,7 @@
         <v>36</v>
       </c>
       <c r="K241" s="7"/>
-      <c r="L241" s="19" t="s">
+      <c r="L241" s="23" t="s">
         <v>613</v>
       </c>
     </row>
@@ -14802,7 +14824,7 @@
         <v>36</v>
       </c>
       <c r="K242" s="7"/>
-      <c r="L242" s="19" t="s">
+      <c r="L242" s="23" t="s">
         <v>617</v>
       </c>
     </row>
@@ -14836,7 +14858,7 @@
         <v>36</v>
       </c>
       <c r="K243" s="7"/>
-      <c r="L243" s="19" t="s">
+      <c r="L243" s="23" t="s">
         <v>621</v>
       </c>
     </row>
@@ -14870,7 +14892,7 @@
         <v>60</v>
       </c>
       <c r="K244" s="7"/>
-      <c r="L244" s="19" t="s">
+      <c r="L244" s="23" t="s">
         <v>183</v>
       </c>
     </row>
@@ -14904,7 +14926,7 @@
         <v>36</v>
       </c>
       <c r="K245" s="7"/>
-      <c r="L245" s="19" t="s">
+      <c r="L245" s="23" t="s">
         <v>431</v>
       </c>
     </row>
@@ -14938,7 +14960,7 @@
         <v>60</v>
       </c>
       <c r="K246" s="7"/>
-      <c r="L246" s="19" t="s">
+      <c r="L246" s="23" t="s">
         <v>433</v>
       </c>
     </row>
@@ -14972,7 +14994,7 @@
         <v>36</v>
       </c>
       <c r="K247" s="7"/>
-      <c r="L247" s="19" t="s">
+      <c r="L247" s="23" t="s">
         <v>436</v>
       </c>
     </row>
@@ -15006,7 +15028,7 @@
         <v>36</v>
       </c>
       <c r="K248" s="7"/>
-      <c r="L248" s="19" t="s">
+      <c r="L248" s="23" t="s">
         <v>628</v>
       </c>
     </row>
@@ -15040,7 +15062,7 @@
         <v>36</v>
       </c>
       <c r="K249" s="7"/>
-      <c r="L249" s="19"/>
+      <c r="L249" s="23"/>
     </row>
     <row r="250" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="5" t="s">
@@ -15072,7 +15094,7 @@
         <v>36</v>
       </c>
       <c r="K250" s="7"/>
-      <c r="L250" s="19" t="s">
+      <c r="L250" s="23" t="s">
         <v>632</v>
       </c>
     </row>
@@ -15338,7 +15360,7 @@
       <c r="A259" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="B259" s="16" t="s">
+      <c r="B259" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C259" s="8" t="n">
@@ -15353,7 +15375,7 @@
       <c r="F259" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="G259" s="18" t="n">
+      <c r="G259" s="22" t="n">
         <v>250001</v>
       </c>
       <c r="H259" s="12"/>
@@ -15366,7 +15388,7 @@
       <c r="A260" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B260" s="16" t="s">
+      <c r="B260" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C260" s="8" t="n">
@@ -15381,7 +15403,7 @@
       <c r="F260" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="G260" s="18" t="n">
+      <c r="G260" s="22" t="n">
         <v>250002</v>
       </c>
       <c r="H260" s="7"/>
@@ -15394,7 +15416,7 @@
       <c r="A261" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="B261" s="16" t="s">
+      <c r="B261" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C261" s="8" t="n">
@@ -15409,7 +15431,7 @@
       <c r="F261" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G261" s="18" t="n">
+      <c r="G261" s="22" t="n">
         <v>250003</v>
       </c>
       <c r="H261" s="7"/>
@@ -15422,7 +15444,7 @@
       <c r="A262" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B262" s="16" t="s">
+      <c r="B262" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C262" s="8" t="n">
@@ -15437,7 +15459,7 @@
       <c r="F262" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G262" s="18" t="n">
+      <c r="G262" s="22" t="n">
         <v>250004</v>
       </c>
       <c r="H262" s="7"/>
@@ -15450,7 +15472,7 @@
       <c r="A263" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="B263" s="16" t="s">
+      <c r="B263" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C263" s="8" t="n">
@@ -15465,7 +15487,7 @@
       <c r="F263" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G263" s="18" t="n">
+      <c r="G263" s="22" t="n">
         <v>250005</v>
       </c>
       <c r="H263" s="7"/>
@@ -15478,7 +15500,7 @@
       <c r="A264" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="B264" s="16" t="s">
+      <c r="B264" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C264" s="8" t="n">
@@ -15493,7 +15515,7 @@
       <c r="F264" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="G264" s="18" t="n">
+      <c r="G264" s="22" t="n">
         <v>250006</v>
       </c>
       <c r="H264" s="7"/>
@@ -15506,7 +15528,7 @@
       <c r="A265" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="B265" s="16" t="s">
+      <c r="B265" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C265" s="8" t="n">
@@ -15521,7 +15543,7 @@
       <c r="F265" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G265" s="18" t="n">
+      <c r="G265" s="22" t="n">
         <v>250007</v>
       </c>
       <c r="H265" s="7"/>
@@ -15534,7 +15556,7 @@
       <c r="A266" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="B266" s="16" t="s">
+      <c r="B266" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C266" s="8" t="n">
@@ -15549,7 +15571,7 @@
       <c r="F266" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="G266" s="18" t="n">
+      <c r="G266" s="22" t="n">
         <v>250008</v>
       </c>
       <c r="H266" s="7"/>
@@ -15562,7 +15584,7 @@
       <c r="A267" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C267" s="8" t="n">
@@ -15577,7 +15599,7 @@
       <c r="F267" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G267" s="18" t="n">
+      <c r="G267" s="22" t="n">
         <v>250009</v>
       </c>
       <c r="H267" s="7"/>
@@ -15590,7 +15612,7 @@
       <c r="A268" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="B268" s="16" t="s">
+      <c r="B268" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C268" s="8" t="n">
@@ -15605,7 +15627,7 @@
       <c r="F268" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="G268" s="18" t="n">
+      <c r="G268" s="22" t="n">
         <v>250010</v>
       </c>
       <c r="H268" s="7"/>
@@ -15618,7 +15640,7 @@
       <c r="A269" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="B269" s="16" t="s">
+      <c r="B269" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C269" s="8" t="n">
@@ -15633,7 +15655,7 @@
       <c r="F269" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="G269" s="18" t="n">
+      <c r="G269" s="22" t="n">
         <v>250011</v>
       </c>
       <c r="H269" s="7"/>
@@ -15646,7 +15668,7 @@
       <c r="A270" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="B270" s="16" t="s">
+      <c r="B270" s="20" t="s">
         <v>647</v>
       </c>
       <c r="C270" s="8" t="n">
@@ -15661,7 +15683,7 @@
       <c r="F270" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="G270" s="18" t="n">
+      <c r="G270" s="22" t="n">
         <v>250012</v>
       </c>
       <c r="H270" s="7"/>
@@ -16073,7 +16095,7 @@
       <c r="F283" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="G283" s="18" t="n">
+      <c r="G283" s="22" t="n">
         <v>400001</v>
       </c>
       <c r="H283" s="12" t="s">
@@ -16105,7 +16127,7 @@
       <c r="F284" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="G284" s="18" t="n">
+      <c r="G284" s="22" t="n">
         <v>400002</v>
       </c>
       <c r="H284" s="12" t="s">
@@ -16141,7 +16163,7 @@
       <c r="F285" s="12" t="s">
         <v>691</v>
       </c>
-      <c r="G285" s="18" t="n">
+      <c r="G285" s="22" t="n">
         <v>400003</v>
       </c>
       <c r="H285" s="12" t="s">
@@ -16177,7 +16199,7 @@
       <c r="F286" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="G286" s="18" t="n">
+      <c r="G286" s="22" t="n">
         <v>400004</v>
       </c>
       <c r="H286" s="12" t="s">
@@ -16210,10 +16232,10 @@
       <c r="E287" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="F287" s="22" t="s">
+      <c r="F287" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G287" s="18" t="n">
+      <c r="G287" s="22" t="n">
         <v>400005</v>
       </c>
       <c r="H287" s="12" t="s">
@@ -16246,10 +16268,10 @@
       <c r="E288" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="F288" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G288" s="18" t="n">
+      <c r="G288" s="22" t="n">
         <v>400006</v>
       </c>
       <c r="H288" s="12" t="s">
@@ -16283,7 +16305,7 @@
       <c r="F289" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G289" s="18" t="n">
+      <c r="G289" s="22" t="n">
         <v>400007</v>
       </c>
       <c r="H289" s="12" t="s">
@@ -16314,10 +16336,10 @@
       <c r="E290" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="F290" s="22" t="s">
+      <c r="F290" s="26" t="s">
         <v>701</v>
       </c>
-      <c r="G290" s="18" t="n">
+      <c r="G290" s="22" t="n">
         <v>400008</v>
       </c>
       <c r="H290" s="12" t="s">
@@ -16353,7 +16375,7 @@
       <c r="F291" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="G291" s="18" t="n">
+      <c r="G291" s="22" t="n">
         <v>410001</v>
       </c>
       <c r="H291" s="12"/>
@@ -16383,7 +16405,7 @@
       <c r="F292" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="G292" s="18" t="n">
+      <c r="G292" s="22" t="n">
         <v>410002</v>
       </c>
       <c r="H292" s="12" t="s">
@@ -16419,7 +16441,7 @@
       <c r="F293" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="G293" s="18" t="n">
+      <c r="G293" s="22" t="n">
         <v>410003</v>
       </c>
       <c r="H293" s="12" t="s">
@@ -16455,7 +16477,7 @@
       <c r="F294" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="G294" s="18" t="n">
+      <c r="G294" s="22" t="n">
         <v>410004</v>
       </c>
       <c r="H294" s="12" t="s">
@@ -16488,10 +16510,10 @@
       <c r="E295" s="8" t="n">
         <v>410</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="F295" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="G295" s="18" t="n">
+      <c r="G295" s="22" t="n">
         <v>410005</v>
       </c>
       <c r="H295" s="12" t="s">
@@ -16524,10 +16546,10 @@
       <c r="E296" s="8" t="n">
         <v>410</v>
       </c>
-      <c r="F296" s="22" t="s">
+      <c r="F296" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G296" s="18" t="n">
+      <c r="G296" s="22" t="n">
         <v>410006</v>
       </c>
       <c r="H296" s="12" t="s">
@@ -16563,7 +16585,7 @@
       <c r="F297" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G297" s="18" t="n">
+      <c r="G297" s="22" t="n">
         <v>410007</v>
       </c>
       <c r="H297" s="12" t="s">
@@ -16599,7 +16621,7 @@
       <c r="F298" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="G298" s="18" t="n">
+      <c r="G298" s="22" t="n">
         <v>410008</v>
       </c>
       <c r="H298" s="12" t="s">
@@ -16633,7 +16655,7 @@
       <c r="F299" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G299" s="18" t="n">
+      <c r="G299" s="22" t="n">
         <v>410009</v>
       </c>
       <c r="H299" s="12" t="s">
@@ -16666,10 +16688,10 @@
       <c r="E300" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F300" s="22" t="s">
+      <c r="F300" s="26" t="s">
         <v>718</v>
       </c>
-      <c r="G300" s="18" t="n">
+      <c r="G300" s="22" t="n">
         <v>410010</v>
       </c>
       <c r="H300" s="12" t="s">
@@ -16703,7 +16725,7 @@
         <v>430</v>
       </c>
       <c r="F301" s="8"/>
-      <c r="G301" s="17"/>
+      <c r="G301" s="21"/>
       <c r="H301" s="12"/>
       <c r="I301" s="5"/>
       <c r="J301" s="8"/>
@@ -16725,7 +16747,7 @@
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
-      <c r="G302" s="17"/>
+      <c r="G302" s="21"/>
       <c r="H302" s="12"/>
       <c r="I302" s="5"/>
       <c r="J302" s="8"/>
@@ -16748,10 +16770,10 @@
       <c r="E303" s="8" t="n">
         <v>420</v>
       </c>
-      <c r="F303" s="22" t="s">
+      <c r="F303" s="26" t="s">
         <v>727</v>
       </c>
-      <c r="G303" s="18" t="n">
+      <c r="G303" s="22" t="n">
         <v>420001</v>
       </c>
       <c r="H303" s="12"/>
@@ -16776,10 +16798,10 @@
       <c r="E304" s="8" t="n">
         <v>450</v>
       </c>
-      <c r="F304" s="22" t="s">
+      <c r="F304" s="26" t="s">
         <v>688</v>
       </c>
-      <c r="G304" s="18" t="n">
+      <c r="G304" s="22" t="n">
         <v>420002</v>
       </c>
       <c r="H304" s="12"/>
@@ -16804,10 +16826,10 @@
       <c r="E305" s="8" t="n">
         <v>600</v>
       </c>
-      <c r="F305" s="22" t="s">
+      <c r="F305" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G305" s="18" t="n">
+      <c r="G305" s="22" t="n">
         <v>420003</v>
       </c>
       <c r="H305" s="12"/>
@@ -16832,10 +16854,10 @@
       <c r="E306" s="8" t="n">
         <v>70</v>
       </c>
-      <c r="F306" s="22" t="s">
+      <c r="F306" s="26" t="s">
         <v>733</v>
       </c>
-      <c r="G306" s="18" t="n">
+      <c r="G306" s="22" t="n">
         <v>420004</v>
       </c>
       <c r="H306" s="12"/>
@@ -16860,10 +16882,10 @@
       <c r="E307" s="8" t="n">
         <v>420</v>
       </c>
-      <c r="F307" s="22" t="s">
+      <c r="F307" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G307" s="18" t="n">
+      <c r="G307" s="22" t="n">
         <v>420005</v>
       </c>
       <c r="H307" s="12"/>
@@ -16888,10 +16910,10 @@
       <c r="E308" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F308" s="22" t="s">
+      <c r="F308" s="26" t="s">
         <v>736</v>
       </c>
-      <c r="G308" s="18" t="n">
+      <c r="G308" s="22" t="n">
         <v>420006</v>
       </c>
       <c r="H308" s="12"/>
@@ -16916,10 +16938,10 @@
       <c r="E309" s="8" t="n">
         <v>420</v>
       </c>
-      <c r="F309" s="22" t="s">
+      <c r="F309" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="G309" s="18" t="n">
+      <c r="G309" s="22" t="n">
         <v>420007</v>
       </c>
       <c r="H309" s="12"/>
@@ -16944,10 +16966,10 @@
       <c r="E310" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F310" s="22" t="s">
+      <c r="F310" s="26" t="s">
         <v>739</v>
       </c>
-      <c r="G310" s="18" t="n">
+      <c r="G310" s="22" t="n">
         <v>420008</v>
       </c>
       <c r="H310" s="12"/>
@@ -16972,10 +16994,10 @@
       <c r="E311" s="8" t="n">
         <v>140</v>
       </c>
-      <c r="F311" s="22" t="s">
+      <c r="F311" s="26" t="s">
         <v>741</v>
       </c>
-      <c r="G311" s="18" t="n">
+      <c r="G311" s="22" t="n">
         <v>420009</v>
       </c>
       <c r="H311" s="12"/>
@@ -16997,7 +17019,7 @@
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
-      <c r="G312" s="17"/>
+      <c r="G312" s="21"/>
       <c r="H312" s="12"/>
       <c r="I312" s="5"/>
       <c r="J312" s="8"/>
@@ -17023,7 +17045,7 @@
       <c r="F313" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="G313" s="18" t="n">
+      <c r="G313" s="22" t="n">
         <v>430001</v>
       </c>
       <c r="H313" s="12"/>
@@ -17053,7 +17075,7 @@
       <c r="F314" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="G314" s="18" t="n">
+      <c r="G314" s="22" t="n">
         <v>430002</v>
       </c>
       <c r="H314" s="12"/>
@@ -17083,7 +17105,7 @@
       <c r="F315" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G315" s="18" t="n">
+      <c r="G315" s="22" t="n">
         <v>430003</v>
       </c>
       <c r="H315" s="12"/>
@@ -17113,7 +17135,7 @@
       <c r="F316" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G316" s="18" t="n">
+      <c r="G316" s="22" t="n">
         <v>430004</v>
       </c>
       <c r="H316" s="12"/>
@@ -17143,7 +17165,7 @@
       <c r="F317" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="G317" s="18" t="n">
+      <c r="G317" s="22" t="n">
         <v>440001</v>
       </c>
       <c r="H317" s="12"/>
@@ -17173,7 +17195,7 @@
       <c r="F318" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="G318" s="18" t="n">
+      <c r="G318" s="22" t="n">
         <v>440002</v>
       </c>
       <c r="H318" s="12"/>
@@ -17203,7 +17225,7 @@
       <c r="F319" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G319" s="18" t="n">
+      <c r="G319" s="22" t="n">
         <v>440003</v>
       </c>
       <c r="H319" s="12"/>
@@ -17233,7 +17255,7 @@
       <c r="F320" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G320" s="18" t="n">
+      <c r="G320" s="22" t="n">
         <v>440004</v>
       </c>
       <c r="H320" s="12"/>
@@ -17263,7 +17285,7 @@
       <c r="F321" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="G321" s="18" t="n">
+      <c r="G321" s="22" t="n">
         <v>440005</v>
       </c>
       <c r="H321" s="12"/>
@@ -17291,7 +17313,7 @@
       <c r="F322" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="G322" s="18" t="n">
+      <c r="G322" s="22" t="n">
         <v>440006</v>
       </c>
       <c r="H322" s="12"/>
@@ -17313,7 +17335,7 @@
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
-      <c r="G323" s="17"/>
+      <c r="G323" s="21"/>
       <c r="H323" s="12"/>
       <c r="I323" s="5"/>
       <c r="J323" s="8"/>
@@ -17350,7 +17372,7 @@
         <v>36</v>
       </c>
       <c r="K324" s="7"/>
-      <c r="L324" s="19" t="s">
+      <c r="L324" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -17386,7 +17408,7 @@
         <v>41</v>
       </c>
       <c r="K325" s="7"/>
-      <c r="L325" s="19" t="s">
+      <c r="L325" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -17422,7 +17444,7 @@
         <v>41</v>
       </c>
       <c r="K326" s="7"/>
-      <c r="L326" s="19" t="s">
+      <c r="L326" s="23" t="s">
         <v>107</v>
       </c>
     </row>
@@ -17445,7 +17467,7 @@
       <c r="F327" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="G327" s="18" t="n">
+      <c r="G327" s="22" t="n">
         <v>450004</v>
       </c>
       <c r="H327" s="12"/>
@@ -17475,7 +17497,7 @@
       <c r="F328" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="G328" s="18" t="n">
+      <c r="G328" s="22" t="n">
         <v>450005</v>
       </c>
       <c r="H328" s="12"/>
@@ -17525,7 +17547,7 @@
       <c r="F330" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="G330" s="18" t="n">
+      <c r="G330" s="22" t="n">
         <v>470001</v>
       </c>
       <c r="H330" s="12"/>
@@ -17555,14 +17577,14 @@
       <c r="F331" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="G331" s="18" t="n">
+      <c r="G331" s="22" t="n">
         <v>470002</v>
       </c>
-      <c r="H331" s="17"/>
+      <c r="H331" s="21"/>
       <c r="I331" s="5"/>
       <c r="J331" s="8"/>
       <c r="K331" s="7"/>
-      <c r="L331" s="23" t="s">
+      <c r="L331" s="27" t="s">
         <v>689</v>
       </c>
     </row>
@@ -17585,14 +17607,14 @@
       <c r="F332" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G332" s="18" t="n">
+      <c r="G332" s="22" t="n">
         <v>470003</v>
       </c>
-      <c r="H332" s="17"/>
+      <c r="H332" s="21"/>
       <c r="I332" s="5"/>
       <c r="J332" s="8"/>
       <c r="K332" s="7"/>
-      <c r="L332" s="23"/>
+      <c r="L332" s="27"/>
     </row>
     <row r="333" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="5" t="s">
@@ -17613,14 +17635,14 @@
       <c r="F333" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G333" s="18" t="n">
+      <c r="G333" s="22" t="n">
         <v>470004</v>
       </c>
-      <c r="H333" s="17"/>
+      <c r="H333" s="21"/>
       <c r="I333" s="5"/>
       <c r="J333" s="8"/>
       <c r="K333" s="7"/>
-      <c r="L333" s="23" t="s">
+      <c r="L333" s="27" t="s">
         <v>777</v>
       </c>
     </row>
@@ -17643,14 +17665,14 @@
       <c r="F334" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G334" s="18" t="n">
+      <c r="G334" s="22" t="n">
         <v>470005</v>
       </c>
-      <c r="H334" s="17"/>
+      <c r="H334" s="21"/>
       <c r="I334" s="5"/>
       <c r="J334" s="8"/>
       <c r="K334" s="7"/>
-      <c r="L334" s="23"/>
+      <c r="L334" s="27"/>
     </row>
     <row r="335" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="5" t="s">
@@ -17671,14 +17693,14 @@
       <c r="F335" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G335" s="18" t="n">
+      <c r="G335" s="22" t="n">
         <v>470006</v>
       </c>
-      <c r="H335" s="17"/>
+      <c r="H335" s="21"/>
       <c r="I335" s="5"/>
       <c r="J335" s="8"/>
       <c r="K335" s="7"/>
-      <c r="L335" s="23" t="s">
+      <c r="L335" s="27" t="s">
         <v>184</v>
       </c>
     </row>
@@ -17701,14 +17723,14 @@
       <c r="F336" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="G336" s="18" t="n">
+      <c r="G336" s="22" t="n">
         <v>470007</v>
       </c>
-      <c r="H336" s="17"/>
+      <c r="H336" s="21"/>
       <c r="I336" s="5"/>
       <c r="J336" s="8"/>
       <c r="K336" s="7"/>
-      <c r="L336" s="23" t="s">
+      <c r="L336" s="27" t="s">
         <v>431</v>
       </c>
     </row>
@@ -17731,14 +17753,14 @@
       <c r="F337" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G337" s="18" t="n">
+      <c r="G337" s="22" t="n">
         <v>470008</v>
       </c>
-      <c r="H337" s="17"/>
+      <c r="H337" s="21"/>
       <c r="I337" s="5"/>
       <c r="J337" s="8"/>
       <c r="K337" s="7"/>
-      <c r="L337" s="23" t="s">
+      <c r="L337" s="27" t="s">
         <v>433</v>
       </c>
     </row>
@@ -17761,14 +17783,14 @@
       <c r="F338" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="G338" s="18" t="n">
+      <c r="G338" s="22" t="n">
         <v>470009</v>
       </c>
-      <c r="H338" s="17"/>
+      <c r="H338" s="21"/>
       <c r="I338" s="5"/>
       <c r="J338" s="8"/>
       <c r="K338" s="7"/>
-      <c r="L338" s="23"/>
+      <c r="L338" s="27"/>
     </row>
     <row r="339" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="5" t="s">
@@ -17789,14 +17811,14 @@
       <c r="F339" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="G339" s="18" t="n">
+      <c r="G339" s="22" t="n">
         <v>470010</v>
       </c>
-      <c r="H339" s="17"/>
+      <c r="H339" s="21"/>
       <c r="I339" s="5"/>
       <c r="J339" s="8"/>
       <c r="K339" s="7"/>
-      <c r="L339" s="23" t="s">
+      <c r="L339" s="27" t="s">
         <v>628</v>
       </c>
     </row>
@@ -17819,14 +17841,14 @@
       <c r="F340" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="G340" s="18" t="n">
+      <c r="G340" s="22" t="n">
         <v>470011</v>
       </c>
-      <c r="H340" s="17"/>
+      <c r="H340" s="21"/>
       <c r="I340" s="5"/>
       <c r="J340" s="8"/>
       <c r="K340" s="7"/>
-      <c r="L340" s="23" t="s">
+      <c r="L340" s="27" t="s">
         <v>785</v>
       </c>
     </row>
@@ -17849,14 +17871,14 @@
       <c r="F341" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="G341" s="18" t="n">
+      <c r="G341" s="22" t="n">
         <v>470012</v>
       </c>
-      <c r="H341" s="17"/>
+      <c r="H341" s="21"/>
       <c r="I341" s="5"/>
       <c r="J341" s="8"/>
       <c r="K341" s="7"/>
-      <c r="L341" s="23" t="s">
+      <c r="L341" s="27" t="s">
         <v>788</v>
       </c>
     </row>
@@ -17874,11 +17896,11 @@
       <c r="E342" s="8"/>
       <c r="F342" s="9"/>
       <c r="G342" s="10"/>
-      <c r="H342" s="17"/>
+      <c r="H342" s="21"/>
       <c r="I342" s="5"/>
       <c r="J342" s="8"/>
       <c r="K342" s="7"/>
-      <c r="L342" s="23"/>
+      <c r="L342" s="27"/>
     </row>
     <row r="343" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="5" t="s">
@@ -17896,17 +17918,17 @@
       <c r="E343" s="8" t="n">
         <v>480</v>
       </c>
-      <c r="F343" s="22" t="s">
+      <c r="F343" s="26" t="s">
         <v>794</v>
       </c>
-      <c r="G343" s="18" t="n">
+      <c r="G343" s="22" t="n">
         <v>480001</v>
       </c>
       <c r="H343" s="12"/>
       <c r="I343" s="5"/>
       <c r="J343" s="8"/>
       <c r="K343" s="7"/>
-      <c r="L343" s="23"/>
+      <c r="L343" s="27"/>
     </row>
     <row r="344" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="5" t="s">
@@ -17924,17 +17946,17 @@
       <c r="E344" s="8" t="n">
         <v>600</v>
       </c>
-      <c r="F344" s="22" t="s">
+      <c r="F344" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="G344" s="18" t="n">
+      <c r="G344" s="22" t="n">
         <v>480002</v>
       </c>
       <c r="H344" s="12"/>
       <c r="I344" s="5"/>
       <c r="J344" s="8"/>
       <c r="K344" s="7"/>
-      <c r="L344" s="23"/>
+      <c r="L344" s="27"/>
     </row>
     <row r="345" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="5" t="s">
@@ -17952,17 +17974,17 @@
       <c r="E345" s="8" t="n">
         <v>480</v>
       </c>
-      <c r="F345" s="22" t="s">
+      <c r="F345" s="26" t="s">
         <v>797</v>
       </c>
-      <c r="G345" s="18" t="n">
+      <c r="G345" s="22" t="n">
         <v>480003</v>
       </c>
       <c r="H345" s="12"/>
       <c r="I345" s="5"/>
       <c r="J345" s="8"/>
       <c r="K345" s="7"/>
-      <c r="L345" s="23"/>
+      <c r="L345" s="27"/>
     </row>
     <row r="346" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="5" t="s">
@@ -17980,11 +18002,11 @@
       <c r="E346" s="8" t="n">
         <v>480</v>
       </c>
-      <c r="F346" s="24" t="e">
+      <c r="F346" s="28" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G346" s="17" t="e">
+      <c r="G346" s="21" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
@@ -17992,7 +18014,7 @@
       <c r="I346" s="5"/>
       <c r="J346" s="8"/>
       <c r="K346" s="7"/>
-      <c r="L346" s="23"/>
+      <c r="L346" s="27"/>
     </row>
     <row r="347" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="5" t="s">
@@ -18010,11 +18032,11 @@
       <c r="E347" s="8" t="n">
         <v>480</v>
       </c>
-      <c r="F347" s="24" t="e">
+      <c r="F347" s="28" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G347" s="17" t="e">
+      <c r="G347" s="21" t="e">
         <f aca="false">#REF!</f>
         <v>#REF!</v>
       </c>
@@ -18022,7 +18044,7 @@
       <c r="I347" s="5"/>
       <c r="J347" s="8"/>
       <c r="K347" s="7"/>
-      <c r="L347" s="23"/>
+      <c r="L347" s="27"/>
     </row>
     <row r="348" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="5" t="s">
@@ -18040,17 +18062,17 @@
       <c r="E348" s="8" t="n">
         <v>490</v>
       </c>
-      <c r="F348" s="22" t="s">
+      <c r="F348" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="G348" s="18" t="n">
+      <c r="G348" s="22" t="n">
         <v>490001</v>
       </c>
       <c r="H348" s="12"/>
       <c r="I348" s="5"/>
       <c r="J348" s="8"/>
       <c r="K348" s="7"/>
-      <c r="L348" s="23"/>
+      <c r="L348" s="27"/>
     </row>
     <row r="349" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="5" t="s">
@@ -18068,17 +18090,17 @@
       <c r="E349" s="8" t="n">
         <v>490</v>
       </c>
-      <c r="F349" s="22" t="s">
+      <c r="F349" s="26" t="s">
         <v>804</v>
       </c>
-      <c r="G349" s="18" t="n">
+      <c r="G349" s="22" t="n">
         <v>490002</v>
       </c>
       <c r="H349" s="12"/>
       <c r="I349" s="5"/>
       <c r="J349" s="8"/>
       <c r="K349" s="7"/>
-      <c r="L349" s="23"/>
+      <c r="L349" s="27"/>
     </row>
     <row r="350" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="5" t="s">
@@ -18096,17 +18118,17 @@
       <c r="E350" s="8" t="n">
         <v>490</v>
       </c>
-      <c r="F350" s="22" t="s">
+      <c r="F350" s="26" t="s">
         <v>806</v>
       </c>
-      <c r="G350" s="18" t="n">
+      <c r="G350" s="22" t="n">
         <v>490003</v>
       </c>
       <c r="H350" s="12"/>
       <c r="I350" s="5"/>
       <c r="J350" s="8"/>
       <c r="K350" s="7"/>
-      <c r="L350" s="23"/>
+      <c r="L350" s="27"/>
     </row>
     <row r="351" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="5" t="s">
@@ -18124,17 +18146,17 @@
       <c r="E351" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="F351" s="22" t="s">
+      <c r="F351" s="26" t="s">
         <v>809</v>
       </c>
-      <c r="G351" s="18" t="n">
+      <c r="G351" s="22" t="n">
         <v>500001</v>
       </c>
       <c r="H351" s="12"/>
       <c r="I351" s="5"/>
       <c r="J351" s="8"/>
       <c r="K351" s="7"/>
-      <c r="L351" s="23" t="s">
+      <c r="L351" s="27" t="s">
         <v>810</v>
       </c>
     </row>
@@ -18154,17 +18176,17 @@
       <c r="E352" s="8" t="n">
         <v>490</v>
       </c>
-      <c r="F352" s="22" t="s">
+      <c r="F352" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="G352" s="18" t="n">
+      <c r="G352" s="22" t="n">
         <v>500002</v>
       </c>
       <c r="H352" s="12"/>
       <c r="I352" s="5"/>
       <c r="J352" s="8"/>
       <c r="K352" s="7"/>
-      <c r="L352" s="23" t="s">
+      <c r="L352" s="27" t="s">
         <v>812</v>
       </c>
     </row>
@@ -18184,17 +18206,17 @@
       <c r="E353" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="F353" s="22" t="s">
+      <c r="F353" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="G353" s="18" t="n">
+      <c r="G353" s="22" t="n">
         <v>500003</v>
       </c>
       <c r="H353" s="12"/>
       <c r="I353" s="5"/>
       <c r="J353" s="8"/>
       <c r="K353" s="7"/>
-      <c r="L353" s="23"/>
+      <c r="L353" s="27"/>
     </row>
     <row r="354" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="5" t="s">
@@ -18212,17 +18234,17 @@
       <c r="E354" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="F354" s="22" t="s">
+      <c r="F354" s="26" t="s">
         <v>816</v>
       </c>
-      <c r="G354" s="18" t="n">
+      <c r="G354" s="22" t="n">
         <v>500004</v>
       </c>
       <c r="H354" s="12"/>
       <c r="I354" s="5"/>
       <c r="J354" s="8"/>
       <c r="K354" s="7"/>
-      <c r="L354" s="23" t="s">
+      <c r="L354" s="27" t="s">
         <v>817</v>
       </c>
     </row>
@@ -18242,17 +18264,17 @@
       <c r="E355" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="F355" s="22" t="s">
+      <c r="F355" s="26" t="s">
         <v>819</v>
       </c>
-      <c r="G355" s="18" t="n">
+      <c r="G355" s="22" t="n">
         <v>500005</v>
       </c>
       <c r="H355" s="12"/>
       <c r="I355" s="5"/>
       <c r="J355" s="8"/>
       <c r="K355" s="7"/>
-      <c r="L355" s="23" t="s">
+      <c r="L355" s="27" t="s">
         <v>820</v>
       </c>
     </row>
@@ -18272,17 +18294,17 @@
       <c r="E356" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="F356" s="22" t="s">
+      <c r="F356" s="26" t="s">
         <v>822</v>
       </c>
-      <c r="G356" s="18" t="n">
+      <c r="G356" s="22" t="n">
         <v>500006</v>
       </c>
       <c r="H356" s="12"/>
       <c r="I356" s="5"/>
       <c r="J356" s="8"/>
       <c r="K356" s="7"/>
-      <c r="L356" s="23" t="s">
+      <c r="L356" s="27" t="s">
         <v>823</v>
       </c>
     </row>
@@ -18299,7 +18321,7 @@
       <c r="D357" s="8"/>
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
-      <c r="G357" s="17"/>
+      <c r="G357" s="21"/>
       <c r="H357" s="12"/>
       <c r="I357" s="5"/>
       <c r="J357" s="8"/>
@@ -18651,7 +18673,7 @@
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
-      <c r="G369" s="17"/>
+      <c r="G369" s="21"/>
       <c r="H369" s="12"/>
       <c r="I369" s="5"/>
       <c r="J369" s="8"/>
@@ -18671,7 +18693,7 @@
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
-      <c r="G370" s="17"/>
+      <c r="G370" s="21"/>
       <c r="H370" s="12"/>
       <c r="I370" s="5"/>
       <c r="J370" s="8"/>
@@ -18708,7 +18730,7 @@
         <v>36</v>
       </c>
       <c r="K371" s="7"/>
-      <c r="L371" s="19" t="s">
+      <c r="L371" s="23" t="s">
         <v>37</v>
       </c>
     </row>
@@ -18744,7 +18766,7 @@
         <v>41</v>
       </c>
       <c r="K372" s="7"/>
-      <c r="L372" s="19" t="s">
+      <c r="L372" s="23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -18767,7 +18789,7 @@
       <c r="F373" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G373" s="18" t="n">
+      <c r="G373" s="22" t="n">
         <v>560003</v>
       </c>
       <c r="H373" s="5" t="s">
@@ -18780,7 +18802,7 @@
         <v>60</v>
       </c>
       <c r="K373" s="7"/>
-      <c r="L373" s="19" t="s">
+      <c r="L373" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -18816,7 +18838,7 @@
         <v>60</v>
       </c>
       <c r="K374" s="7"/>
-      <c r="L374" s="19" t="s">
+      <c r="L374" s="23" t="s">
         <v>859</v>
       </c>
     </row>
@@ -18852,7 +18874,7 @@
         <v>60</v>
       </c>
       <c r="K375" s="7"/>
-      <c r="L375" s="19" t="s">
+      <c r="L375" s="23" t="s">
         <v>861</v>
       </c>
     </row>
@@ -19009,7 +19031,7 @@
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
-      <c r="G383" s="17"/>
+      <c r="G383" s="21"/>
       <c r="H383" s="12"/>
       <c r="I383" s="5"/>
       <c r="J383" s="8"/>
@@ -19035,7 +19057,7 @@
       <c r="F384" s="12" t="s">
         <v>880</v>
       </c>
-      <c r="G384" s="18" t="n">
+      <c r="G384" s="22" t="n">
         <v>580001</v>
       </c>
       <c r="H384" s="12"/>
@@ -19063,7 +19085,7 @@
       <c r="F385" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G385" s="18" t="n">
+      <c r="G385" s="22" t="n">
         <v>580002</v>
       </c>
       <c r="H385" s="12"/>
@@ -19091,7 +19113,7 @@
       <c r="F386" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="G386" s="18" t="n">
+      <c r="G386" s="22" t="n">
         <v>580003</v>
       </c>
       <c r="H386" s="12"/>
@@ -19121,7 +19143,7 @@
       <c r="F387" s="12" t="s">
         <v>884</v>
       </c>
-      <c r="G387" s="18" t="n">
+      <c r="G387" s="22" t="n">
         <v>580004</v>
       </c>
       <c r="H387" s="12"/>
@@ -19149,7 +19171,7 @@
       <c r="F388" s="12" t="s">
         <v>886</v>
       </c>
-      <c r="G388" s="18" t="n">
+      <c r="G388" s="22" t="n">
         <v>580005</v>
       </c>
       <c r="H388" s="12"/>
@@ -19171,7 +19193,7 @@
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
-      <c r="G389" s="17"/>
+      <c r="G389" s="21"/>
       <c r="H389" s="12"/>
       <c r="I389" s="5"/>
       <c r="J389" s="8"/>
@@ -19197,7 +19219,7 @@
       <c r="F390" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G390" s="18" t="n">
+      <c r="G390" s="22" t="n">
         <v>600001</v>
       </c>
       <c r="H390" s="12"/>
@@ -19227,7 +19249,7 @@
       <c r="F391" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G391" s="18" t="n">
+      <c r="G391" s="22" t="n">
         <v>600002</v>
       </c>
       <c r="H391" s="7"/>
@@ -19257,7 +19279,7 @@
       <c r="F392" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G392" s="18" t="n">
+      <c r="G392" s="22" t="n">
         <v>600003</v>
       </c>
       <c r="H392" s="7"/>
@@ -19287,7 +19309,7 @@
       <c r="F393" s="12" t="s">
         <v>893</v>
       </c>
-      <c r="G393" s="18" t="n">
+      <c r="G393" s="22" t="n">
         <v>600004</v>
       </c>
       <c r="H393" s="7"/>
@@ -19317,7 +19339,7 @@
       <c r="F394" s="12" t="s">
         <v>895</v>
       </c>
-      <c r="G394" s="18" t="n">
+      <c r="G394" s="22" t="n">
         <v>600005</v>
       </c>
       <c r="H394" s="7"/>
@@ -19347,7 +19369,7 @@
       <c r="F395" s="12" t="s">
         <v>898</v>
       </c>
-      <c r="G395" s="18" t="n">
+      <c r="G395" s="22" t="n">
         <v>600006</v>
       </c>
       <c r="H395" s="7"/>
@@ -19377,7 +19399,7 @@
       <c r="F396" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="G396" s="18" t="n">
+      <c r="G396" s="22" t="n">
         <v>600007</v>
       </c>
       <c r="H396" s="7"/>
@@ -20323,7 +20345,7 @@
       <c r="D429" s="8"/>
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
-      <c r="G429" s="17"/>
+      <c r="G429" s="21"/>
       <c r="H429" s="12"/>
       <c r="I429" s="5"/>
       <c r="J429" s="8"/>
@@ -21234,7 +21256,7 @@
       <c r="E463" s="8" t="n">
         <v>750</v>
       </c>
-      <c r="F463" s="22" t="s">
+      <c r="F463" s="26" t="s">
         <v>1024</v>
       </c>
       <c r="G463" s="14" t="n">
@@ -21262,7 +21284,7 @@
       <c r="E464" s="8" t="n">
         <v>750</v>
       </c>
-      <c r="F464" s="22" t="s">
+      <c r="F464" s="26" t="s">
         <v>460</v>
       </c>
       <c r="G464" s="14" t="n">
@@ -21290,7 +21312,7 @@
       <c r="E465" s="8" t="n">
         <v>750</v>
       </c>
-      <c r="F465" s="22" t="s">
+      <c r="F465" s="26" t="s">
         <v>1027</v>
       </c>
       <c r="G465" s="14" t="n">
@@ -21318,7 +21340,7 @@
       <c r="E466" s="8" t="n">
         <v>750</v>
       </c>
-      <c r="F466" s="22" t="s">
+      <c r="F466" s="26" t="s">
         <v>1029</v>
       </c>
       <c r="G466" s="14" t="n">
@@ -21346,7 +21368,7 @@
       <c r="E467" s="8" t="n">
         <v>750</v>
       </c>
-      <c r="F467" s="22" t="s">
+      <c r="F467" s="26" t="s">
         <v>1031</v>
       </c>
       <c r="G467" s="14" t="n">
@@ -21374,7 +21396,7 @@
       <c r="E468" s="8" t="n">
         <v>750</v>
       </c>
-      <c r="F468" s="22" t="s">
+      <c r="F468" s="26" t="s">
         <v>1033</v>
       </c>
       <c r="G468" s="14" t="n">
@@ -21402,7 +21424,7 @@
       <c r="E469" s="8" t="n">
         <v>750</v>
       </c>
-      <c r="F469" s="22" t="s">
+      <c r="F469" s="26" t="s">
         <v>1035</v>
       </c>
       <c r="G469" s="14" t="n">
@@ -21430,7 +21452,7 @@
       <c r="E470" s="8" t="n">
         <v>750</v>
       </c>
-      <c r="F470" s="22" t="s">
+      <c r="F470" s="26" t="s">
         <v>1037</v>
       </c>
       <c r="G470" s="14" t="n">
@@ -21458,7 +21480,7 @@
       <c r="E471" s="8" t="n">
         <v>750</v>
       </c>
-      <c r="F471" s="22" t="s">
+      <c r="F471" s="26" t="s">
         <v>1039</v>
       </c>
       <c r="G471" s="14" t="n">
@@ -21483,7 +21505,7 @@
       <c r="D472" s="8"/>
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
-      <c r="G472" s="17"/>
+      <c r="G472" s="21"/>
       <c r="H472" s="12"/>
       <c r="I472" s="5"/>
       <c r="J472" s="8"/>
@@ -21503,7 +21525,7 @@
       <c r="D473" s="8"/>
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
-      <c r="G473" s="17"/>
+      <c r="G473" s="21"/>
       <c r="H473" s="12"/>
       <c r="I473" s="5"/>
       <c r="J473" s="8"/>
@@ -21523,7 +21545,7 @@
       <c r="D474" s="8"/>
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
-      <c r="G474" s="17"/>
+      <c r="G474" s="21"/>
       <c r="H474" s="12"/>
       <c r="I474" s="5"/>
       <c r="J474" s="8"/>
@@ -21543,7 +21565,7 @@
       <c r="D475" s="8"/>
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
-      <c r="G475" s="17"/>
+      <c r="G475" s="21"/>
       <c r="H475" s="12"/>
       <c r="I475" s="5"/>
       <c r="J475" s="8"/>
@@ -21569,7 +21591,7 @@
       <c r="F476" s="12" t="s">
         <v>1050</v>
       </c>
-      <c r="G476" s="18" t="n">
+      <c r="G476" s="22" t="n">
         <v>690001</v>
       </c>
       <c r="H476" s="12"/>
@@ -21599,7 +21621,7 @@
       <c r="F477" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G477" s="18" t="n">
+      <c r="G477" s="22" t="n">
         <v>690002</v>
       </c>
       <c r="H477" s="7"/>
@@ -21629,7 +21651,7 @@
       <c r="F478" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G478" s="18" t="n">
+      <c r="G478" s="22" t="n">
         <v>690003</v>
       </c>
       <c r="H478" s="7"/>
@@ -21659,7 +21681,7 @@
       <c r="F479" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G479" s="18" t="n">
+      <c r="G479" s="22" t="n">
         <v>690004</v>
       </c>
       <c r="H479" s="7"/>
@@ -21689,7 +21711,7 @@
       <c r="F480" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="G480" s="18" t="n">
+      <c r="G480" s="22" t="n">
         <v>690005</v>
       </c>
       <c r="H480" s="7"/>
@@ -23802,11 +23824,11 @@
       <c r="G559" s="14" t="n">
         <v>810001</v>
       </c>
-      <c r="H559" s="25"/>
+      <c r="H559" s="29"/>
       <c r="I559" s="5"/>
       <c r="J559" s="8"/>
       <c r="K559" s="7"/>
-      <c r="L559" s="26" t="s">
+      <c r="L559" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -23832,11 +23854,11 @@
       <c r="G560" s="14" t="n">
         <v>810002</v>
       </c>
-      <c r="H560" s="25"/>
+      <c r="H560" s="29"/>
       <c r="I560" s="5"/>
       <c r="J560" s="8"/>
       <c r="K560" s="7"/>
-      <c r="L560" s="26" t="s">
+      <c r="L560" s="30" t="s">
         <v>1246</v>
       </c>
     </row>
@@ -23862,11 +23884,11 @@
       <c r="G561" s="14" t="n">
         <v>810003</v>
       </c>
-      <c r="H561" s="25"/>
+      <c r="H561" s="29"/>
       <c r="I561" s="5"/>
       <c r="J561" s="8"/>
       <c r="K561" s="7"/>
-      <c r="L561" s="26" t="s">
+      <c r="L561" s="30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -23892,11 +23914,11 @@
       <c r="G562" s="14" t="n">
         <v>810004</v>
       </c>
-      <c r="H562" s="25"/>
+      <c r="H562" s="29"/>
       <c r="I562" s="5"/>
       <c r="J562" s="8"/>
       <c r="K562" s="7"/>
-      <c r="L562" s="26" t="s">
+      <c r="L562" s="30" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -23922,11 +23944,11 @@
       <c r="G563" s="14" t="n">
         <v>810005</v>
       </c>
-      <c r="H563" s="25"/>
+      <c r="H563" s="29"/>
       <c r="I563" s="5"/>
       <c r="J563" s="8"/>
       <c r="K563" s="7"/>
-      <c r="L563" s="26" t="s">
+      <c r="L563" s="30" t="s">
         <v>1253</v>
       </c>
     </row>
@@ -23952,11 +23974,11 @@
       <c r="G564" s="14" t="n">
         <v>810006</v>
       </c>
-      <c r="H564" s="25"/>
+      <c r="H564" s="29"/>
       <c r="I564" s="5"/>
       <c r="J564" s="8"/>
       <c r="K564" s="7"/>
-      <c r="L564" s="26" t="s">
+      <c r="L564" s="30" t="s">
         <v>1256</v>
       </c>
     </row>
@@ -23982,11 +24004,11 @@
       <c r="G565" s="14" t="n">
         <v>810007</v>
       </c>
-      <c r="H565" s="25"/>
+      <c r="H565" s="29"/>
       <c r="I565" s="5"/>
       <c r="J565" s="8"/>
       <c r="K565" s="7"/>
-      <c r="L565" s="26" t="s">
+      <c r="L565" s="30" t="s">
         <v>1259</v>
       </c>
     </row>
@@ -24012,11 +24034,11 @@
       <c r="G566" s="14" t="n">
         <v>810008</v>
       </c>
-      <c r="H566" s="25"/>
+      <c r="H566" s="29"/>
       <c r="I566" s="5"/>
       <c r="J566" s="8"/>
       <c r="K566" s="7"/>
-      <c r="L566" s="26" t="s">
+      <c r="L566" s="30" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -24042,11 +24064,11 @@
       <c r="G567" s="14" t="n">
         <v>810009</v>
       </c>
-      <c r="H567" s="25"/>
+      <c r="H567" s="29"/>
       <c r="I567" s="5"/>
       <c r="J567" s="8"/>
       <c r="K567" s="7"/>
-      <c r="L567" s="26" t="s">
+      <c r="L567" s="30" t="s">
         <v>1265</v>
       </c>
     </row>
@@ -24072,11 +24094,11 @@
       <c r="G568" s="14" t="n">
         <v>810010</v>
       </c>
-      <c r="H568" s="25"/>
+      <c r="H568" s="29"/>
       <c r="I568" s="5"/>
       <c r="J568" s="8"/>
       <c r="K568" s="7"/>
-      <c r="L568" s="26"/>
+      <c r="L568" s="30"/>
     </row>
     <row r="569" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="5" t="s">
@@ -24100,11 +24122,11 @@
       <c r="G569" s="14" t="n">
         <v>810011</v>
       </c>
-      <c r="H569" s="25"/>
+      <c r="H569" s="29"/>
       <c r="I569" s="5"/>
       <c r="J569" s="8"/>
       <c r="K569" s="7"/>
-      <c r="L569" s="26" t="s">
+      <c r="L569" s="30" t="s">
         <v>1269</v>
       </c>
     </row>
@@ -24130,11 +24152,11 @@
       <c r="G570" s="14" t="n">
         <v>810012</v>
       </c>
-      <c r="H570" s="25"/>
+      <c r="H570" s="29"/>
       <c r="I570" s="5"/>
       <c r="J570" s="8"/>
       <c r="K570" s="7"/>
-      <c r="L570" s="26" t="s">
+      <c r="L570" s="30" t="s">
         <v>1272</v>
       </c>
     </row>
@@ -24160,11 +24182,11 @@
       <c r="G571" s="14" t="n">
         <v>810013</v>
       </c>
-      <c r="H571" s="25"/>
+      <c r="H571" s="29"/>
       <c r="I571" s="5"/>
       <c r="J571" s="8"/>
       <c r="K571" s="7"/>
-      <c r="L571" s="26" t="s">
+      <c r="L571" s="30" t="s">
         <v>1275</v>
       </c>
     </row>
@@ -24184,17 +24206,17 @@
       <c r="E572" s="8" t="n">
         <v>810</v>
       </c>
-      <c r="F572" s="22" t="s">
+      <c r="F572" s="26" t="s">
         <v>1277</v>
       </c>
       <c r="G572" s="14" t="n">
         <v>810014</v>
       </c>
-      <c r="H572" s="25"/>
+      <c r="H572" s="29"/>
       <c r="I572" s="5"/>
       <c r="J572" s="8"/>
       <c r="K572" s="7"/>
-      <c r="L572" s="26" t="s">
+      <c r="L572" s="30" t="s">
         <v>1278</v>
       </c>
     </row>
@@ -24220,11 +24242,11 @@
       <c r="G573" s="14" t="n">
         <v>810015</v>
       </c>
-      <c r="H573" s="25"/>
+      <c r="H573" s="29"/>
       <c r="I573" s="5"/>
       <c r="J573" s="8"/>
       <c r="K573" s="7"/>
-      <c r="L573" s="26" t="s">
+      <c r="L573" s="30" t="s">
         <v>1281</v>
       </c>
     </row>
@@ -24250,11 +24272,11 @@
       <c r="G574" s="14" t="n">
         <v>810016</v>
       </c>
-      <c r="H574" s="25"/>
+      <c r="H574" s="29"/>
       <c r="I574" s="5"/>
       <c r="J574" s="8"/>
       <c r="K574" s="7"/>
-      <c r="L574" s="26" t="s">
+      <c r="L574" s="30" t="s">
         <v>1284</v>
       </c>
     </row>
@@ -24274,17 +24296,17 @@
       <c r="E575" s="8" t="n">
         <v>810</v>
       </c>
-      <c r="F575" s="22" t="s">
+      <c r="F575" s="26" t="s">
         <v>1286</v>
       </c>
       <c r="G575" s="14" t="n">
         <v>810017</v>
       </c>
-      <c r="H575" s="25"/>
+      <c r="H575" s="29"/>
       <c r="I575" s="5"/>
       <c r="J575" s="8"/>
       <c r="K575" s="7"/>
-      <c r="L575" s="26"/>
+      <c r="L575" s="30"/>
     </row>
     <row r="576" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="5" t="s">
@@ -24302,17 +24324,17 @@
       <c r="E576" s="8" t="n">
         <v>806</v>
       </c>
-      <c r="F576" s="22" t="s">
+      <c r="F576" s="26" t="s">
         <v>1289</v>
       </c>
       <c r="G576" s="14" t="n">
         <v>810018</v>
       </c>
-      <c r="H576" s="25"/>
+      <c r="H576" s="29"/>
       <c r="I576" s="5"/>
       <c r="J576" s="8"/>
       <c r="K576" s="7"/>
-      <c r="L576" s="26"/>
+      <c r="L576" s="30"/>
     </row>
     <row r="577" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="5" t="s">
@@ -24336,11 +24358,11 @@
       <c r="G577" s="14" t="n">
         <v>810019</v>
       </c>
-      <c r="H577" s="25"/>
+      <c r="H577" s="29"/>
       <c r="I577" s="5"/>
       <c r="J577" s="8"/>
       <c r="K577" s="7"/>
-      <c r="L577" s="26" t="s">
+      <c r="L577" s="30" t="s">
         <v>1293</v>
       </c>
     </row>
@@ -24360,17 +24382,17 @@
       <c r="E578" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F578" s="22" t="s">
+      <c r="F578" s="26" t="s">
         <v>556</v>
       </c>
       <c r="G578" s="14" t="n">
         <v>810020</v>
       </c>
-      <c r="H578" s="25"/>
+      <c r="H578" s="29"/>
       <c r="I578" s="5"/>
       <c r="J578" s="8"/>
       <c r="K578" s="7"/>
-      <c r="L578" s="26" t="s">
+      <c r="L578" s="30" t="s">
         <v>1295</v>
       </c>
     </row>
@@ -24400,7 +24422,7 @@
       <c r="I579" s="5"/>
       <c r="J579" s="8"/>
       <c r="K579" s="7"/>
-      <c r="L579" s="26" t="s">
+      <c r="L579" s="30" t="s">
         <v>1298</v>
       </c>
     </row>
@@ -24430,7 +24452,7 @@
       <c r="I580" s="5"/>
       <c r="J580" s="8"/>
       <c r="K580" s="7"/>
-      <c r="L580" s="26" t="s">
+      <c r="L580" s="30" t="s">
         <v>184</v>
       </c>
     </row>
@@ -24496,7 +24518,7 @@
       <c r="G583" s="14" t="n">
         <v>820001</v>
       </c>
-      <c r="H583" s="25" t="s">
+      <c r="H583" s="29" t="s">
         <v>35</v>
       </c>
       <c r="I583" s="5"/>
@@ -24504,7 +24526,7 @@
         <v>36</v>
       </c>
       <c r="K583" s="7"/>
-      <c r="L583" s="26" t="s">
+      <c r="L583" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -24530,7 +24552,7 @@
       <c r="G584" s="14" t="n">
         <v>820002</v>
       </c>
-      <c r="H584" s="25" t="s">
+      <c r="H584" s="29" t="s">
         <v>1307</v>
       </c>
       <c r="I584" s="5"/>
@@ -24538,7 +24560,7 @@
         <v>41</v>
       </c>
       <c r="K584" s="7"/>
-      <c r="L584" s="26" t="s">
+      <c r="L584" s="30" t="s">
         <v>1308</v>
       </c>
     </row>
@@ -24564,11 +24586,11 @@
       <c r="G585" s="14" t="n">
         <v>820003</v>
       </c>
-      <c r="H585" s="25"/>
+      <c r="H585" s="29"/>
       <c r="I585" s="5"/>
       <c r="J585" s="8"/>
       <c r="K585" s="7"/>
-      <c r="L585" s="26" t="s">
+      <c r="L585" s="30" t="s">
         <v>1311</v>
       </c>
     </row>
@@ -24594,11 +24616,11 @@
       <c r="G586" s="14" t="n">
         <v>820004</v>
       </c>
-      <c r="H586" s="25"/>
+      <c r="H586" s="29"/>
       <c r="I586" s="5"/>
       <c r="J586" s="8"/>
       <c r="K586" s="7"/>
-      <c r="L586" s="26" t="s">
+      <c r="L586" s="30" t="s">
         <v>319</v>
       </c>
     </row>
@@ -24624,11 +24646,11 @@
       <c r="G587" s="14" t="n">
         <v>820005</v>
       </c>
-      <c r="H587" s="25"/>
+      <c r="H587" s="29"/>
       <c r="I587" s="5"/>
       <c r="J587" s="8"/>
       <c r="K587" s="7"/>
-      <c r="L587" s="26" t="s">
+      <c r="L587" s="30" t="s">
         <v>322</v>
       </c>
     </row>
@@ -24654,11 +24676,11 @@
       <c r="G588" s="14" t="n">
         <v>820006</v>
       </c>
-      <c r="H588" s="25"/>
+      <c r="H588" s="29"/>
       <c r="I588" s="5"/>
       <c r="J588" s="8"/>
       <c r="K588" s="7"/>
-      <c r="L588" s="26" t="s">
+      <c r="L588" s="30" t="s">
         <v>325</v>
       </c>
     </row>
@@ -24684,11 +24706,11 @@
       <c r="G589" s="14" t="n">
         <v>820007</v>
       </c>
-      <c r="H589" s="25"/>
+      <c r="H589" s="29"/>
       <c r="I589" s="5"/>
       <c r="J589" s="8"/>
       <c r="K589" s="7"/>
-      <c r="L589" s="26"/>
+      <c r="L589" s="30"/>
     </row>
     <row r="590" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="5" t="s">
@@ -24712,11 +24734,11 @@
       <c r="G590" s="14" t="n">
         <v>820008</v>
       </c>
-      <c r="H590" s="25"/>
+      <c r="H590" s="29"/>
       <c r="I590" s="5"/>
       <c r="J590" s="8"/>
       <c r="K590" s="7"/>
-      <c r="L590" s="26" t="s">
+      <c r="L590" s="30" t="s">
         <v>330</v>
       </c>
     </row>
@@ -24742,11 +24764,11 @@
       <c r="G591" s="14" t="n">
         <v>820009</v>
       </c>
-      <c r="H591" s="25"/>
+      <c r="H591" s="29"/>
       <c r="I591" s="5"/>
       <c r="J591" s="8"/>
       <c r="K591" s="7"/>
-      <c r="L591" s="26" t="s">
+      <c r="L591" s="30" t="s">
         <v>333</v>
       </c>
     </row>
@@ -24772,11 +24794,11 @@
       <c r="G592" s="14" t="n">
         <v>820010</v>
       </c>
-      <c r="H592" s="25"/>
+      <c r="H592" s="29"/>
       <c r="I592" s="5"/>
       <c r="J592" s="8"/>
       <c r="K592" s="7"/>
-      <c r="L592" s="26" t="s">
+      <c r="L592" s="30" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -24802,11 +24824,11 @@
       <c r="G593" s="14" t="n">
         <v>820011</v>
       </c>
-      <c r="H593" s="25"/>
+      <c r="H593" s="29"/>
       <c r="I593" s="5"/>
       <c r="J593" s="8"/>
       <c r="K593" s="7"/>
-      <c r="L593" s="26" t="s">
+      <c r="L593" s="30" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -24832,11 +24854,11 @@
       <c r="G594" s="14" t="n">
         <v>820012</v>
       </c>
-      <c r="H594" s="25"/>
+      <c r="H594" s="29"/>
       <c r="I594" s="5"/>
       <c r="J594" s="8"/>
       <c r="K594" s="7"/>
-      <c r="L594" s="26" t="s">
+      <c r="L594" s="30" t="s">
         <v>1326</v>
       </c>
     </row>
@@ -24862,11 +24884,11 @@
       <c r="G595" s="14" t="n">
         <v>820013</v>
       </c>
-      <c r="H595" s="25"/>
+      <c r="H595" s="29"/>
       <c r="I595" s="5"/>
       <c r="J595" s="8"/>
       <c r="K595" s="7"/>
-      <c r="L595" s="26" t="s">
+      <c r="L595" s="30" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -24892,11 +24914,11 @@
       <c r="G596" s="14" t="n">
         <v>820014</v>
       </c>
-      <c r="H596" s="25"/>
+      <c r="H596" s="29"/>
       <c r="I596" s="5"/>
       <c r="J596" s="8"/>
       <c r="K596" s="7"/>
-      <c r="L596" s="26" t="s">
+      <c r="L596" s="30" t="s">
         <v>1332</v>
       </c>
     </row>
@@ -24922,11 +24944,11 @@
       <c r="G597" s="14" t="n">
         <v>820015</v>
       </c>
-      <c r="H597" s="25"/>
+      <c r="H597" s="29"/>
       <c r="I597" s="5"/>
       <c r="J597" s="8"/>
       <c r="K597" s="7"/>
-      <c r="L597" s="26" t="s">
+      <c r="L597" s="30" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -24952,11 +24974,11 @@
       <c r="G598" s="14" t="n">
         <v>820016</v>
       </c>
-      <c r="H598" s="25"/>
+      <c r="H598" s="29"/>
       <c r="I598" s="5"/>
       <c r="J598" s="8"/>
       <c r="K598" s="7"/>
-      <c r="L598" s="26" t="s">
+      <c r="L598" s="30" t="s">
         <v>1338</v>
       </c>
     </row>
@@ -24982,11 +25004,11 @@
       <c r="G599" s="14" t="n">
         <v>820017</v>
       </c>
-      <c r="H599" s="25"/>
+      <c r="H599" s="29"/>
       <c r="I599" s="5"/>
       <c r="J599" s="8"/>
       <c r="K599" s="7"/>
-      <c r="L599" s="26" t="s">
+      <c r="L599" s="30" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -25012,11 +25034,11 @@
       <c r="G600" s="14" t="n">
         <v>820018</v>
       </c>
-      <c r="H600" s="25"/>
+      <c r="H600" s="29"/>
       <c r="I600" s="5"/>
       <c r="J600" s="8"/>
       <c r="K600" s="7"/>
-      <c r="L600" s="26" t="s">
+      <c r="L600" s="30" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -25042,11 +25064,11 @@
       <c r="G601" s="14" t="n">
         <v>820019</v>
       </c>
-      <c r="H601" s="25"/>
+      <c r="H601" s="29"/>
       <c r="I601" s="5"/>
       <c r="J601" s="8"/>
       <c r="K601" s="7"/>
-      <c r="L601" s="26" t="s">
+      <c r="L601" s="30" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -25072,11 +25094,11 @@
       <c r="G602" s="14" t="n">
         <v>820020</v>
       </c>
-      <c r="H602" s="25"/>
+      <c r="H602" s="29"/>
       <c r="I602" s="5"/>
       <c r="J602" s="8"/>
       <c r="K602" s="7"/>
-      <c r="L602" s="26" t="s">
+      <c r="L602" s="30" t="s">
         <v>1350</v>
       </c>
     </row>
@@ -25102,11 +25124,11 @@
       <c r="G603" s="14" t="n">
         <v>820021</v>
       </c>
-      <c r="H603" s="25"/>
+      <c r="H603" s="29"/>
       <c r="I603" s="5"/>
       <c r="J603" s="8"/>
       <c r="K603" s="7"/>
-      <c r="L603" s="26" t="s">
+      <c r="L603" s="30" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -25132,11 +25154,11 @@
       <c r="G604" s="14" t="n">
         <v>820022</v>
       </c>
-      <c r="H604" s="25"/>
+      <c r="H604" s="29"/>
       <c r="I604" s="5"/>
       <c r="J604" s="8"/>
       <c r="K604" s="7"/>
-      <c r="L604" s="26" t="s">
+      <c r="L604" s="30" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -25162,11 +25184,11 @@
       <c r="G605" s="14" t="n">
         <v>820023</v>
       </c>
-      <c r="H605" s="25"/>
+      <c r="H605" s="29"/>
       <c r="I605" s="5"/>
       <c r="J605" s="8"/>
       <c r="K605" s="7"/>
-      <c r="L605" s="26" t="s">
+      <c r="L605" s="30" t="s">
         <v>1359</v>
       </c>
     </row>
@@ -25192,11 +25214,11 @@
       <c r="G606" s="14" t="n">
         <v>820024</v>
       </c>
-      <c r="H606" s="25"/>
+      <c r="H606" s="29"/>
       <c r="I606" s="5"/>
       <c r="J606" s="8"/>
       <c r="K606" s="7"/>
-      <c r="L606" s="26" t="s">
+      <c r="L606" s="30" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -25222,11 +25244,11 @@
       <c r="G607" s="14" t="n">
         <v>820025</v>
       </c>
-      <c r="H607" s="25"/>
+      <c r="H607" s="29"/>
       <c r="I607" s="5"/>
       <c r="J607" s="8"/>
       <c r="K607" s="7"/>
-      <c r="L607" s="26" t="s">
+      <c r="L607" s="30" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -25252,11 +25274,11 @@
       <c r="G608" s="14" t="n">
         <v>820026</v>
       </c>
-      <c r="H608" s="25"/>
+      <c r="H608" s="29"/>
       <c r="I608" s="5"/>
       <c r="J608" s="8"/>
       <c r="K608" s="7"/>
-      <c r="L608" s="26" t="s">
+      <c r="L608" s="30" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -25282,11 +25304,11 @@
       <c r="G609" s="14" t="n">
         <v>820027</v>
       </c>
-      <c r="H609" s="25"/>
+      <c r="H609" s="29"/>
       <c r="I609" s="5"/>
       <c r="J609" s="8"/>
       <c r="K609" s="7"/>
-      <c r="L609" s="26" t="s">
+      <c r="L609" s="30" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -25312,11 +25334,11 @@
       <c r="G610" s="14" t="n">
         <v>820028</v>
       </c>
-      <c r="H610" s="25"/>
+      <c r="H610" s="29"/>
       <c r="I610" s="5"/>
       <c r="J610" s="8"/>
       <c r="K610" s="7"/>
-      <c r="L610" s="26" t="s">
+      <c r="L610" s="30" t="s">
         <v>1374</v>
       </c>
     </row>
@@ -25342,11 +25364,11 @@
       <c r="G611" s="14" t="n">
         <v>820029</v>
       </c>
-      <c r="H611" s="25"/>
+      <c r="H611" s="29"/>
       <c r="I611" s="5"/>
       <c r="J611" s="8"/>
       <c r="K611" s="7"/>
-      <c r="L611" s="26" t="s">
+      <c r="L611" s="30" t="s">
         <v>1377</v>
       </c>
     </row>
@@ -25372,11 +25394,11 @@
       <c r="G612" s="14" t="n">
         <v>820030</v>
       </c>
-      <c r="H612" s="25"/>
+      <c r="H612" s="29"/>
       <c r="I612" s="5"/>
       <c r="J612" s="8"/>
       <c r="K612" s="7"/>
-      <c r="L612" s="26" t="s">
+      <c r="L612" s="30" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -25402,11 +25424,11 @@
       <c r="G613" s="14" t="n">
         <v>820031</v>
       </c>
-      <c r="H613" s="25"/>
+      <c r="H613" s="29"/>
       <c r="I613" s="5"/>
       <c r="J613" s="8"/>
       <c r="K613" s="7"/>
-      <c r="L613" s="26" t="s">
+      <c r="L613" s="30" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -25432,11 +25454,11 @@
       <c r="G614" s="14" t="n">
         <v>820032</v>
       </c>
-      <c r="H614" s="25"/>
+      <c r="H614" s="29"/>
       <c r="I614" s="5"/>
       <c r="J614" s="8"/>
       <c r="K614" s="7"/>
-      <c r="L614" s="26" t="s">
+      <c r="L614" s="30" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -25462,11 +25484,11 @@
       <c r="G615" s="14" t="n">
         <v>820033</v>
       </c>
-      <c r="H615" s="25"/>
+      <c r="H615" s="29"/>
       <c r="I615" s="5"/>
       <c r="J615" s="8"/>
       <c r="K615" s="7"/>
-      <c r="L615" s="26" t="s">
+      <c r="L615" s="30" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -25492,11 +25514,11 @@
       <c r="G616" s="14" t="n">
         <v>820034</v>
       </c>
-      <c r="H616" s="25"/>
+      <c r="H616" s="29"/>
       <c r="I616" s="5"/>
       <c r="J616" s="8"/>
       <c r="K616" s="7"/>
-      <c r="L616" s="26" t="s">
+      <c r="L616" s="30" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -25522,11 +25544,11 @@
       <c r="G617" s="14" t="n">
         <v>820035</v>
       </c>
-      <c r="H617" s="25"/>
+      <c r="H617" s="29"/>
       <c r="I617" s="5"/>
       <c r="J617" s="8"/>
       <c r="K617" s="7"/>
-      <c r="L617" s="26" t="s">
+      <c r="L617" s="30" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -25552,11 +25574,11 @@
       <c r="G618" s="14" t="n">
         <v>820036</v>
       </c>
-      <c r="H618" s="25"/>
+      <c r="H618" s="29"/>
       <c r="I618" s="5"/>
       <c r="J618" s="8"/>
       <c r="K618" s="7"/>
-      <c r="L618" s="26" t="s">
+      <c r="L618" s="30" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -25582,11 +25604,11 @@
       <c r="G619" s="14" t="n">
         <v>820037</v>
       </c>
-      <c r="H619" s="25"/>
+      <c r="H619" s="29"/>
       <c r="I619" s="5"/>
       <c r="J619" s="8"/>
       <c r="K619" s="7"/>
-      <c r="L619" s="26" t="s">
+      <c r="L619" s="30" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -25612,11 +25634,11 @@
       <c r="G620" s="14" t="n">
         <v>820038</v>
       </c>
-      <c r="H620" s="25"/>
+      <c r="H620" s="29"/>
       <c r="I620" s="5"/>
       <c r="J620" s="8"/>
       <c r="K620" s="7"/>
-      <c r="L620" s="26" t="s">
+      <c r="L620" s="30" t="s">
         <v>1281</v>
       </c>
     </row>
@@ -25642,11 +25664,11 @@
       <c r="G621" s="14" t="n">
         <v>820039</v>
       </c>
-      <c r="H621" s="25"/>
+      <c r="H621" s="29"/>
       <c r="I621" s="5"/>
       <c r="J621" s="8"/>
       <c r="K621" s="7"/>
-      <c r="L621" s="26" t="s">
+      <c r="L621" s="30" t="s">
         <v>401</v>
       </c>
     </row>
@@ -25672,11 +25694,11 @@
       <c r="G622" s="14" t="n">
         <v>820040</v>
       </c>
-      <c r="H622" s="25"/>
+      <c r="H622" s="29"/>
       <c r="I622" s="5"/>
       <c r="J622" s="8"/>
       <c r="K622" s="7"/>
-      <c r="L622" s="26"/>
+      <c r="L622" s="30"/>
     </row>
     <row r="623" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="5" t="s">
@@ -25700,11 +25722,11 @@
       <c r="G623" s="14" t="n">
         <v>820041</v>
       </c>
-      <c r="H623" s="25"/>
+      <c r="H623" s="29"/>
       <c r="I623" s="5"/>
       <c r="J623" s="8"/>
       <c r="K623" s="7"/>
-      <c r="L623" s="26" t="s">
+      <c r="L623" s="30" t="s">
         <v>1406</v>
       </c>
     </row>
@@ -25730,11 +25752,11 @@
       <c r="G624" s="14" t="n">
         <v>820042</v>
       </c>
-      <c r="H624" s="25"/>
+      <c r="H624" s="29"/>
       <c r="I624" s="5"/>
       <c r="J624" s="8"/>
       <c r="K624" s="7"/>
-      <c r="L624" s="26" t="s">
+      <c r="L624" s="30" t="s">
         <v>1408</v>
       </c>
     </row>
@@ -25760,11 +25782,11 @@
       <c r="G625" s="14" t="n">
         <v>820043</v>
       </c>
-      <c r="H625" s="25"/>
+      <c r="H625" s="29"/>
       <c r="I625" s="5"/>
       <c r="J625" s="8"/>
       <c r="K625" s="7"/>
-      <c r="L625" s="26" t="s">
+      <c r="L625" s="30" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -25790,11 +25812,11 @@
       <c r="G626" s="14" t="n">
         <v>820044</v>
       </c>
-      <c r="H626" s="25"/>
+      <c r="H626" s="29"/>
       <c r="I626" s="5"/>
       <c r="J626" s="8"/>
       <c r="K626" s="7"/>
-      <c r="L626" s="26" t="s">
+      <c r="L626" s="30" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -25820,11 +25842,11 @@
       <c r="G627" s="14" t="n">
         <v>820045</v>
       </c>
-      <c r="H627" s="25"/>
+      <c r="H627" s="29"/>
       <c r="I627" s="5"/>
       <c r="J627" s="8"/>
       <c r="K627" s="7"/>
-      <c r="L627" s="26" t="s">
+      <c r="L627" s="30" t="s">
         <v>431</v>
       </c>
     </row>
@@ -25850,11 +25872,11 @@
       <c r="G628" s="14" t="n">
         <v>820046</v>
       </c>
-      <c r="H628" s="25"/>
+      <c r="H628" s="29"/>
       <c r="I628" s="5"/>
       <c r="J628" s="8"/>
       <c r="K628" s="7"/>
-      <c r="L628" s="26" t="s">
+      <c r="L628" s="30" t="s">
         <v>1416</v>
       </c>
     </row>
@@ -25880,11 +25902,11 @@
       <c r="G629" s="14" t="n">
         <v>820047</v>
       </c>
-      <c r="H629" s="25"/>
+      <c r="H629" s="29"/>
       <c r="I629" s="5"/>
       <c r="J629" s="8"/>
       <c r="K629" s="7"/>
-      <c r="L629" s="26"/>
+      <c r="L629" s="30"/>
     </row>
     <row r="630" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="5" t="s">
@@ -25908,11 +25930,11 @@
       <c r="G630" s="14" t="n">
         <v>820048</v>
       </c>
-      <c r="H630" s="25"/>
+      <c r="H630" s="29"/>
       <c r="I630" s="5"/>
       <c r="J630" s="8"/>
       <c r="K630" s="7"/>
-      <c r="L630" s="26"/>
+      <c r="L630" s="30"/>
     </row>
     <row r="631" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="5" t="s">
@@ -25936,11 +25958,11 @@
       <c r="G631" s="14" t="n">
         <v>820049</v>
       </c>
-      <c r="H631" s="25"/>
+      <c r="H631" s="29"/>
       <c r="I631" s="5"/>
       <c r="J631" s="8"/>
       <c r="K631" s="7"/>
-      <c r="L631" s="26"/>
+      <c r="L631" s="30"/>
     </row>
     <row r="632" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="5" t="s">
@@ -25956,11 +25978,11 @@
       <c r="E632" s="8"/>
       <c r="F632" s="9"/>
       <c r="G632" s="10"/>
-      <c r="H632" s="25"/>
+      <c r="H632" s="29"/>
       <c r="I632" s="5"/>
       <c r="J632" s="8"/>
       <c r="K632" s="7"/>
-      <c r="L632" s="26"/>
+      <c r="L632" s="30"/>
     </row>
     <row r="633" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="5" t="s">
@@ -25980,11 +26002,11 @@
       </c>
       <c r="F633" s="9"/>
       <c r="G633" s="10"/>
-      <c r="H633" s="25"/>
+      <c r="H633" s="29"/>
       <c r="I633" s="5"/>
       <c r="J633" s="8"/>
       <c r="K633" s="7"/>
-      <c r="L633" s="26"/>
+      <c r="L633" s="30"/>
     </row>
     <row r="634" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="5" t="s">
@@ -26005,10 +26027,10 @@
       <c r="F634" s="13" t="s">
         <v>1426</v>
       </c>
-      <c r="G634" s="18" t="n">
+      <c r="G634" s="22" t="n">
         <v>865001</v>
       </c>
-      <c r="H634" s="25" t="s">
+      <c r="H634" s="29" t="s">
         <v>35</v>
       </c>
       <c r="I634" s="5"/>
@@ -26016,7 +26038,7 @@
         <v>36</v>
       </c>
       <c r="K634" s="7"/>
-      <c r="L634" s="26" t="s">
+      <c r="L634" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -26039,10 +26061,10 @@
       <c r="F635" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G635" s="18" t="n">
+      <c r="G635" s="22" t="n">
         <v>865002</v>
       </c>
-      <c r="H635" s="25" t="s">
+      <c r="H635" s="29" t="s">
         <v>3</v>
       </c>
       <c r="I635" s="5" t="s">
@@ -26052,7 +26074,7 @@
         <v>41</v>
       </c>
       <c r="K635" s="7"/>
-      <c r="L635" s="26"/>
+      <c r="L635" s="30"/>
     </row>
     <row r="636" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="5" t="s">
@@ -26073,10 +26095,10 @@
       <c r="F636" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G636" s="18" t="n">
+      <c r="G636" s="22" t="n">
         <v>865003</v>
       </c>
-      <c r="H636" s="25" t="s">
+      <c r="H636" s="29" t="s">
         <v>1429</v>
       </c>
       <c r="I636" s="5" t="s">
@@ -26086,7 +26108,7 @@
         <v>41</v>
       </c>
       <c r="K636" s="7"/>
-      <c r="L636" s="26" t="s">
+      <c r="L636" s="30" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -26109,10 +26131,10 @@
       <c r="F637" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G637" s="18" t="n">
+      <c r="G637" s="22" t="n">
         <v>865004</v>
       </c>
-      <c r="H637" s="25" t="s">
+      <c r="H637" s="29" t="s">
         <v>55</v>
       </c>
       <c r="I637" s="5" t="s">
@@ -26122,7 +26144,7 @@
         <v>36</v>
       </c>
       <c r="K637" s="7"/>
-      <c r="L637" s="26" t="s">
+      <c r="L637" s="30" t="s">
         <v>107</v>
       </c>
     </row>
@@ -26145,10 +26167,10 @@
       <c r="F638" s="13" t="s">
         <v>1433</v>
       </c>
-      <c r="G638" s="18" t="n">
+      <c r="G638" s="22" t="n">
         <v>865005</v>
       </c>
-      <c r="H638" s="25" t="s">
+      <c r="H638" s="29" t="s">
         <v>1434</v>
       </c>
       <c r="I638" s="5" t="s">
@@ -26158,7 +26180,7 @@
         <v>41</v>
       </c>
       <c r="K638" s="7"/>
-      <c r="L638" s="26" t="s">
+      <c r="L638" s="30" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -26181,10 +26203,10 @@
       <c r="F639" s="13" t="s">
         <v>1438</v>
       </c>
-      <c r="G639" s="18" t="n">
+      <c r="G639" s="22" t="n">
         <v>870001</v>
       </c>
-      <c r="H639" s="25" t="s">
+      <c r="H639" s="29" t="s">
         <v>35</v>
       </c>
       <c r="I639" s="5"/>
@@ -26192,7 +26214,7 @@
         <v>36</v>
       </c>
       <c r="K639" s="7"/>
-      <c r="L639" s="26" t="s">
+      <c r="L639" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -26215,10 +26237,10 @@
       <c r="F640" s="13" t="s">
         <v>1441</v>
       </c>
-      <c r="G640" s="18" t="n">
+      <c r="G640" s="22" t="n">
         <v>870002</v>
       </c>
-      <c r="H640" s="25" t="s">
+      <c r="H640" s="29" t="s">
         <v>1441</v>
       </c>
       <c r="I640" s="5" t="s">
@@ -26228,7 +26250,7 @@
         <v>41</v>
       </c>
       <c r="K640" s="7"/>
-      <c r="L640" s="26" t="s">
+      <c r="L640" s="30" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -26251,10 +26273,10 @@
       <c r="F641" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G641" s="18" t="n">
+      <c r="G641" s="22" t="n">
         <v>870003</v>
       </c>
-      <c r="H641" s="25" t="s">
+      <c r="H641" s="29" t="s">
         <v>44</v>
       </c>
       <c r="I641" s="5" t="s">
@@ -26264,7 +26286,7 @@
         <v>41</v>
       </c>
       <c r="K641" s="7"/>
-      <c r="L641" s="26" t="s">
+      <c r="L641" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -26287,10 +26309,10 @@
       <c r="F642" s="13" t="s">
         <v>1446</v>
       </c>
-      <c r="G642" s="18" t="n">
+      <c r="G642" s="22" t="n">
         <v>870004</v>
       </c>
-      <c r="H642" s="25" t="s">
+      <c r="H642" s="29" t="s">
         <v>1447</v>
       </c>
       <c r="I642" s="5" t="s">
@@ -26300,7 +26322,7 @@
         <v>41</v>
       </c>
       <c r="K642" s="7"/>
-      <c r="L642" s="26"/>
+      <c r="L642" s="30"/>
     </row>
     <row r="643" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="5" t="s">
@@ -26321,14 +26343,14 @@
       <c r="F643" s="13" t="s">
         <v>1450</v>
       </c>
-      <c r="G643" s="18" t="n">
+      <c r="G643" s="22" t="n">
         <v>880001</v>
       </c>
-      <c r="H643" s="25"/>
+      <c r="H643" s="29"/>
       <c r="I643" s="5"/>
       <c r="J643" s="8"/>
       <c r="K643" s="7"/>
-      <c r="L643" s="26" t="s">
+      <c r="L643" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -26351,14 +26373,14 @@
       <c r="F644" s="13" t="s">
         <v>1441</v>
       </c>
-      <c r="G644" s="18" t="n">
+      <c r="G644" s="22" t="n">
         <v>880002</v>
       </c>
-      <c r="H644" s="25"/>
+      <c r="H644" s="29"/>
       <c r="I644" s="5"/>
       <c r="J644" s="8"/>
       <c r="K644" s="7"/>
-      <c r="L644" s="26" t="s">
+      <c r="L644" s="30" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -26381,14 +26403,14 @@
       <c r="F645" s="13" t="s">
         <v>1453</v>
       </c>
-      <c r="G645" s="18" t="n">
+      <c r="G645" s="22" t="n">
         <v>880003</v>
       </c>
-      <c r="H645" s="25"/>
+      <c r="H645" s="29"/>
       <c r="I645" s="5"/>
       <c r="J645" s="8"/>
       <c r="K645" s="7"/>
-      <c r="L645" s="26" t="s">
+      <c r="L645" s="30" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -26405,12 +26427,12 @@
       <c r="D646" s="8"/>
       <c r="E646" s="8"/>
       <c r="F646" s="8"/>
-      <c r="G646" s="17"/>
-      <c r="H646" s="25"/>
+      <c r="G646" s="21"/>
+      <c r="H646" s="29"/>
       <c r="I646" s="5"/>
       <c r="J646" s="8"/>
       <c r="K646" s="7"/>
-      <c r="L646" s="26"/>
+      <c r="L646" s="30"/>
     </row>
     <row r="647" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="5" t="s">
@@ -26431,14 +26453,14 @@
       <c r="F647" s="13" t="s">
         <v>1458</v>
       </c>
-      <c r="G647" s="18" t="n">
+      <c r="G647" s="22" t="n">
         <v>890001</v>
       </c>
-      <c r="H647" s="25"/>
+      <c r="H647" s="29"/>
       <c r="I647" s="5"/>
       <c r="J647" s="8"/>
       <c r="K647" s="7"/>
-      <c r="L647" s="26" t="s">
+      <c r="L647" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -26461,14 +26483,14 @@
       <c r="F648" s="13" t="s">
         <v>1441</v>
       </c>
-      <c r="G648" s="18" t="n">
+      <c r="G648" s="22" t="n">
         <v>880002</v>
       </c>
-      <c r="H648" s="25"/>
+      <c r="H648" s="29"/>
       <c r="I648" s="5"/>
       <c r="J648" s="8"/>
       <c r="K648" s="7"/>
-      <c r="L648" s="26" t="s">
+      <c r="L648" s="30" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -26491,14 +26513,14 @@
       <c r="F649" s="13" t="s">
         <v>1462</v>
       </c>
-      <c r="G649" s="18" t="n">
+      <c r="G649" s="22" t="n">
         <v>890003</v>
       </c>
-      <c r="H649" s="25"/>
+      <c r="H649" s="29"/>
       <c r="I649" s="5"/>
       <c r="J649" s="8"/>
       <c r="K649" s="7"/>
-      <c r="L649" s="26" t="s">
+      <c r="L649" s="30" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -26521,14 +26543,14 @@
       <c r="F650" s="13" t="s">
         <v>1447</v>
       </c>
-      <c r="G650" s="18" t="n">
+      <c r="G650" s="22" t="n">
         <v>890004</v>
       </c>
-      <c r="H650" s="25"/>
+      <c r="H650" s="29"/>
       <c r="I650" s="5"/>
       <c r="J650" s="8"/>
       <c r="K650" s="7"/>
-      <c r="L650" s="26"/>
+      <c r="L650" s="30"/>
     </row>
     <row r="651" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="5" t="s">
@@ -26543,7 +26565,7 @@
       <c r="D651" s="8"/>
       <c r="E651" s="8"/>
       <c r="F651" s="8"/>
-      <c r="G651" s="17"/>
+      <c r="G651" s="21"/>
       <c r="H651" s="12"/>
       <c r="I651" s="5"/>
       <c r="J651" s="8"/>
@@ -26569,7 +26591,7 @@
       <c r="F652" s="12" t="s">
         <v>1467</v>
       </c>
-      <c r="G652" s="18" t="n">
+      <c r="G652" s="22" t="n">
         <v>900001</v>
       </c>
       <c r="H652" s="12"/>
@@ -26599,7 +26621,7 @@
       <c r="F653" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G653" s="18" t="n">
+      <c r="G653" s="22" t="n">
         <v>900002</v>
       </c>
       <c r="H653" s="7"/>
@@ -26629,7 +26651,7 @@
       <c r="F654" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G654" s="18" t="n">
+      <c r="G654" s="22" t="n">
         <v>900003</v>
       </c>
       <c r="H654" s="7"/>
@@ -29116,7 +29138,7 @@
       <c r="I741" s="5"/>
       <c r="J741" s="8"/>
       <c r="K741" s="7"/>
-      <c r="L741" s="19" t="s">
+      <c r="L741" s="23" t="s">
         <v>409</v>
       </c>
     </row>
@@ -30420,7 +30442,7 @@
       <c r="I787" s="5"/>
       <c r="J787" s="8"/>
       <c r="K787" s="7"/>
-      <c r="L787" s="19" t="s">
+      <c r="L787" s="23" t="s">
         <v>571</v>
       </c>
     </row>
@@ -31590,8 +31612,8 @@
       </c>
       <c r="D827" s="8"/>
       <c r="E827" s="8"/>
-      <c r="F827" s="25"/>
-      <c r="G827" s="25"/>
+      <c r="F827" s="29"/>
+      <c r="G827" s="29"/>
       <c r="H827" s="7"/>
       <c r="I827" s="5"/>
       <c r="J827" s="8"/>
@@ -31610,8 +31632,8 @@
       </c>
       <c r="D828" s="8"/>
       <c r="E828" s="8"/>
-      <c r="F828" s="25"/>
-      <c r="G828" s="25"/>
+      <c r="F828" s="29"/>
+      <c r="G828" s="29"/>
       <c r="H828" s="7"/>
       <c r="I828" s="5"/>
       <c r="J828" s="8"/>
@@ -33294,7 +33316,7 @@
       <c r="I885" s="5"/>
       <c r="J885" s="8"/>
       <c r="K885" s="7"/>
-      <c r="L885" s="19" t="s">
+      <c r="L885" s="23" t="s">
         <v>409</v>
       </c>
     </row>
@@ -35504,7 +35526,7 @@
       <c r="I962" s="5"/>
       <c r="J962" s="8"/>
       <c r="K962" s="7"/>
-      <c r="L962" s="19" t="s">
+      <c r="L962" s="23" t="s">
         <v>409</v>
       </c>
     </row>
@@ -37308,7 +37330,7 @@
       <c r="I1028" s="5"/>
       <c r="J1028" s="8"/>
       <c r="K1028" s="7"/>
-      <c r="L1028" s="27" t="s">
+      <c r="L1028" s="31" t="s">
         <v>412</v>
       </c>
     </row>
@@ -37338,7 +37360,7 @@
       <c r="I1029" s="5"/>
       <c r="J1029" s="8"/>
       <c r="K1029" s="7"/>
-      <c r="L1029" s="27" t="s">
+      <c r="L1029" s="31" t="s">
         <v>418</v>
       </c>
     </row>
@@ -37637,7 +37659,7 @@
       <c r="A1040" s="5" t="s">
         <v>2068</v>
       </c>
-      <c r="B1040" s="28" t="s">
+      <c r="B1040" s="32" t="s">
         <v>2069</v>
       </c>
       <c r="C1040" s="7" t="n">
@@ -37669,7 +37691,7 @@
       <c r="E1041" s="8" t="n">
         <v>1040</v>
       </c>
-      <c r="F1041" s="22" t="s">
+      <c r="F1041" s="26" t="s">
         <v>2072</v>
       </c>
       <c r="G1041" s="14" t="n">
@@ -37699,7 +37721,7 @@
       <c r="E1042" s="8" t="n">
         <v>1040</v>
       </c>
-      <c r="F1042" s="22" t="s">
+      <c r="F1042" s="26" t="s">
         <v>2075</v>
       </c>
       <c r="G1042" s="14" t="n">
@@ -38340,7 +38362,7 @@
       <c r="F1065" s="12" t="s">
         <v>1975</v>
       </c>
-      <c r="G1065" s="18" t="n">
+      <c r="G1065" s="22" t="n">
         <v>1045001</v>
       </c>
       <c r="H1065" s="12"/>
@@ -38368,7 +38390,7 @@
       <c r="F1066" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G1066" s="18" t="n">
+      <c r="G1066" s="22" t="n">
         <v>1045002</v>
       </c>
       <c r="H1066" s="12"/>
@@ -38396,7 +38418,7 @@
       <c r="F1067" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G1067" s="18" t="n">
+      <c r="G1067" s="22" t="n">
         <v>1045003</v>
       </c>
       <c r="H1067" s="12"/>
@@ -38424,7 +38446,7 @@
       <c r="F1068" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="G1068" s="18" t="n">
+      <c r="G1068" s="22" t="n">
         <v>1045004</v>
       </c>
       <c r="H1068" s="12"/>
@@ -38452,7 +38474,7 @@
       <c r="F1069" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="G1069" s="18" t="n">
+      <c r="G1069" s="22" t="n">
         <v>1045005</v>
       </c>
       <c r="H1069" s="12"/>
@@ -38480,7 +38502,7 @@
       <c r="F1070" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="G1070" s="18" t="n">
+      <c r="G1070" s="22" t="n">
         <v>1050001</v>
       </c>
       <c r="H1070" s="12"/>
@@ -38508,7 +38530,7 @@
       <c r="F1071" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="G1071" s="18" t="n">
+      <c r="G1071" s="22" t="n">
         <v>1050002</v>
       </c>
       <c r="H1071" s="7"/>
@@ -38538,7 +38560,7 @@
       <c r="F1072" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G1072" s="18" t="n">
+      <c r="G1072" s="22" t="n">
         <v>1050003</v>
       </c>
       <c r="H1072" s="7"/>
@@ -38566,7 +38588,7 @@
       <c r="F1073" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G1073" s="18" t="n">
+      <c r="G1073" s="22" t="n">
         <v>1050004</v>
       </c>
       <c r="H1073" s="7"/>
@@ -38932,7 +38954,7 @@
       <c r="D1086" s="8"/>
       <c r="E1086" s="8"/>
       <c r="F1086" s="8"/>
-      <c r="G1086" s="17"/>
+      <c r="G1086" s="21"/>
       <c r="H1086" s="12"/>
       <c r="I1086" s="5"/>
       <c r="J1086" s="8"/>
@@ -38952,7 +38974,7 @@
       <c r="D1087" s="8"/>
       <c r="E1087" s="8"/>
       <c r="F1087" s="8"/>
-      <c r="G1087" s="17"/>
+      <c r="G1087" s="21"/>
       <c r="H1087" s="12"/>
       <c r="I1087" s="5"/>
       <c r="J1087" s="8"/>
@@ -38978,7 +39000,7 @@
       <c r="F1088" s="12" t="s">
         <v>2147</v>
       </c>
-      <c r="G1088" s="18" t="n">
+      <c r="G1088" s="22" t="n">
         <v>1080001</v>
       </c>
       <c r="H1088" s="12"/>
@@ -39006,7 +39028,7 @@
       <c r="F1089" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G1089" s="18" t="n">
+      <c r="G1089" s="22" t="n">
         <v>1080002</v>
       </c>
       <c r="H1089" s="12"/>
@@ -39034,7 +39056,7 @@
       <c r="F1090" s="12" t="s">
         <v>2150</v>
       </c>
-      <c r="G1090" s="18" t="n">
+      <c r="G1090" s="22" t="n">
         <v>1080003</v>
       </c>
       <c r="H1090" s="12"/>
@@ -39064,7 +39086,7 @@
       <c r="F1091" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="G1091" s="18" t="n">
+      <c r="G1091" s="22" t="n">
         <v>1080004</v>
       </c>
       <c r="H1091" s="12"/>
@@ -39092,7 +39114,7 @@
       <c r="F1092" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="G1092" s="18" t="n">
+      <c r="G1092" s="22" t="n">
         <v>1080005</v>
       </c>
       <c r="H1092" s="12"/>
@@ -39120,7 +39142,7 @@
       <c r="F1093" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="G1093" s="18" t="n">
+      <c r="G1093" s="22" t="n">
         <v>1080006</v>
       </c>
       <c r="H1093" s="12"/>
@@ -39148,7 +39170,7 @@
       <c r="F1094" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="G1094" s="18" t="n">
+      <c r="G1094" s="22" t="n">
         <v>1080007</v>
       </c>
       <c r="H1094" s="12"/>
@@ -39176,7 +39198,7 @@
       <c r="F1095" s="12" t="s">
         <v>2157</v>
       </c>
-      <c r="G1095" s="18" t="n">
+      <c r="G1095" s="22" t="n">
         <v>1090001</v>
       </c>
       <c r="H1095" s="12"/>
@@ -39204,7 +39226,7 @@
       <c r="F1096" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G1096" s="18" t="n">
+      <c r="G1096" s="22" t="n">
         <v>1090002</v>
       </c>
       <c r="H1096" s="12"/>
@@ -39232,7 +39254,7 @@
       <c r="F1097" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G1097" s="18" t="n">
+      <c r="G1097" s="22" t="n">
         <v>1090003</v>
       </c>
       <c r="H1097" s="12"/>
@@ -39260,7 +39282,7 @@
       <c r="F1098" s="12" t="s">
         <v>911</v>
       </c>
-      <c r="G1098" s="18" t="n">
+      <c r="G1098" s="22" t="n">
         <v>1090004</v>
       </c>
       <c r="H1098" s="12"/>
@@ -39288,7 +39310,7 @@
       <c r="F1099" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1099" s="18" t="n">
+      <c r="G1099" s="22" t="n">
         <v>1090005</v>
       </c>
       <c r="H1099" s="12"/>
@@ -39316,7 +39338,7 @@
       <c r="F1100" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="G1100" s="18" t="n">
+      <c r="G1100" s="22" t="n">
         <v>1090006</v>
       </c>
       <c r="H1100" s="12"/>
@@ -39344,7 +39366,7 @@
       <c r="F1101" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G1101" s="18" t="n">
+      <c r="G1101" s="22" t="n">
         <v>1090007</v>
       </c>
       <c r="H1101" s="12"/>
@@ -39372,7 +39394,7 @@
       <c r="F1102" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="G1102" s="18" t="n">
+      <c r="G1102" s="22" t="n">
         <v>1090008</v>
       </c>
       <c r="H1102" s="12"/>
@@ -39400,7 +39422,7 @@
       <c r="F1103" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G1103" s="18" t="n">
+      <c r="G1103" s="22" t="n">
         <v>1090009</v>
       </c>
       <c r="H1103" s="12"/>
@@ -39428,7 +39450,7 @@
       <c r="F1104" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="G1104" s="18" t="n">
+      <c r="G1104" s="22" t="n">
         <v>1090010</v>
       </c>
       <c r="H1104" s="12"/>
@@ -39456,7 +39478,7 @@
       <c r="F1105" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="G1105" s="18" t="n">
+      <c r="G1105" s="22" t="n">
         <v>1090011</v>
       </c>
       <c r="H1105" s="12"/>
@@ -39484,7 +39506,7 @@
       <c r="F1106" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="G1106" s="18" t="n">
+      <c r="G1106" s="22" t="n">
         <v>1090012</v>
       </c>
       <c r="H1106" s="12"/>
@@ -39506,7 +39528,7 @@
       <c r="D1107" s="8"/>
       <c r="E1107" s="8"/>
       <c r="F1107" s="8"/>
-      <c r="G1107" s="17"/>
+      <c r="G1107" s="21"/>
       <c r="H1107" s="12"/>
       <c r="I1107" s="5"/>
       <c r="J1107" s="8"/>
@@ -39532,7 +39554,7 @@
       <c r="F1108" s="12" t="s">
         <v>2173</v>
       </c>
-      <c r="G1108" s="18" t="n">
+      <c r="G1108" s="22" t="n">
         <v>1100001</v>
       </c>
       <c r="H1108" s="12"/>
@@ -39560,7 +39582,7 @@
       <c r="F1109" s="12" t="s">
         <v>997</v>
       </c>
-      <c r="G1109" s="18" t="n">
+      <c r="G1109" s="22" t="n">
         <v>1100002</v>
       </c>
       <c r="H1109" s="12"/>
@@ -39588,7 +39610,7 @@
       <c r="F1110" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="G1110" s="18" t="n">
+      <c r="G1110" s="22" t="n">
         <v>1100003</v>
       </c>
       <c r="H1110" s="12"/>
@@ -39616,7 +39638,7 @@
       <c r="F1111" s="12" t="s">
         <v>2178</v>
       </c>
-      <c r="G1111" s="18" t="n">
+      <c r="G1111" s="22" t="n">
         <v>1110001</v>
       </c>
       <c r="H1111" s="12"/>
@@ -39644,7 +39666,7 @@
       <c r="F1112" s="12" t="s">
         <v>997</v>
       </c>
-      <c r="G1112" s="18" t="n">
+      <c r="G1112" s="22" t="n">
         <v>1110002</v>
       </c>
       <c r="H1112" s="12"/>
@@ -39672,7 +39694,7 @@
       <c r="F1113" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="G1113" s="18" t="n">
+      <c r="G1113" s="22" t="n">
         <v>1110003</v>
       </c>
       <c r="H1113" s="12"/>
@@ -39700,7 +39722,7 @@
       <c r="F1114" s="12" t="s">
         <v>2182</v>
       </c>
-      <c r="G1114" s="18" t="n">
+      <c r="G1114" s="22" t="n">
         <v>1110004</v>
       </c>
       <c r="H1114" s="12"/>
@@ -39730,7 +39752,7 @@
       <c r="F1115" s="12" t="s">
         <v>2099</v>
       </c>
-      <c r="G1115" s="18" t="n">
+      <c r="G1115" s="22" t="n">
         <v>1120001</v>
       </c>
       <c r="H1115" s="12"/>
@@ -39758,7 +39780,7 @@
       <c r="F1116" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G1116" s="18" t="n">
+      <c r="G1116" s="22" t="n">
         <v>1120002</v>
       </c>
       <c r="H1116" s="12"/>
@@ -39786,7 +39808,7 @@
       <c r="F1117" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G1117" s="18" t="n">
+      <c r="G1117" s="22" t="n">
         <v>1120003</v>
       </c>
       <c r="H1117" s="12"/>
@@ -39814,7 +39836,7 @@
       <c r="F1118" s="12" t="s">
         <v>2188</v>
       </c>
-      <c r="G1118" s="18" t="n">
+      <c r="G1118" s="22" t="n">
         <v>1120004</v>
       </c>
       <c r="H1118" s="12"/>
@@ -39844,7 +39866,7 @@
       <c r="F1119" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="G1119" s="18" t="n">
+      <c r="G1119" s="22" t="n">
         <v>1120005</v>
       </c>
       <c r="H1119" s="12"/>
@@ -39872,7 +39894,7 @@
       <c r="F1120" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G1120" s="18" t="n">
+      <c r="G1120" s="22" t="n">
         <v>1120006</v>
       </c>
       <c r="H1120" s="12"/>
@@ -39900,7 +39922,7 @@
       <c r="F1121" s="12" t="s">
         <v>2193</v>
       </c>
-      <c r="G1121" s="18" t="n">
+      <c r="G1121" s="22" t="n">
         <v>1130001</v>
       </c>
       <c r="H1121" s="12"/>
@@ -39928,7 +39950,7 @@
       <c r="F1122" s="12" t="s">
         <v>2195</v>
       </c>
-      <c r="G1122" s="18" t="n">
+      <c r="G1122" s="22" t="n">
         <v>1130002</v>
       </c>
       <c r="H1122" s="12"/>
@@ -39956,7 +39978,7 @@
       <c r="F1123" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="G1123" s="18" t="n">
+      <c r="G1123" s="22" t="n">
         <v>1130003</v>
       </c>
       <c r="H1123" s="12"/>
@@ -39984,7 +40006,7 @@
       <c r="F1124" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G1124" s="18" t="n">
+      <c r="G1124" s="22" t="n">
         <v>1130004</v>
       </c>
       <c r="H1124" s="12"/>
@@ -40012,7 +40034,7 @@
       <c r="F1125" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="G1125" s="18" t="n">
+      <c r="G1125" s="22" t="n">
         <v>1130005</v>
       </c>
       <c r="H1125" s="12"/>
@@ -40040,7 +40062,7 @@
       <c r="F1126" s="12" t="s">
         <v>911</v>
       </c>
-      <c r="G1126" s="18" t="n">
+      <c r="G1126" s="22" t="n">
         <v>1130006</v>
       </c>
       <c r="H1126" s="12"/>
@@ -40062,7 +40084,7 @@
       <c r="D1127" s="8"/>
       <c r="E1127" s="8"/>
       <c r="F1127" s="8"/>
-      <c r="G1127" s="17"/>
+      <c r="G1127" s="21"/>
       <c r="H1127" s="12"/>
       <c r="I1127" s="5"/>
       <c r="J1127" s="8"/>
@@ -40086,7 +40108,7 @@
         <v>1140</v>
       </c>
       <c r="F1128" s="8"/>
-      <c r="G1128" s="17"/>
+      <c r="G1128" s="21"/>
       <c r="H1128" s="12"/>
       <c r="I1128" s="5"/>
       <c r="J1128" s="8"/>
@@ -40112,7 +40134,7 @@
       <c r="F1129" s="12" t="s">
         <v>2206</v>
       </c>
-      <c r="G1129" s="18" t="n">
+      <c r="G1129" s="22" t="n">
         <v>1150001</v>
       </c>
       <c r="H1129" s="12"/>
@@ -40140,7 +40162,7 @@
       <c r="F1130" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G1130" s="18" t="n">
+      <c r="G1130" s="22" t="n">
         <v>1150002</v>
       </c>
       <c r="H1130" s="7"/>
@@ -40168,7 +40190,7 @@
       <c r="F1131" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G1131" s="18" t="n">
+      <c r="G1131" s="22" t="n">
         <v>1150003</v>
       </c>
       <c r="H1131" s="7"/>
@@ -40193,10 +40215,10 @@
       <c r="E1132" s="8" t="n">
         <v>1150</v>
       </c>
-      <c r="F1132" s="22" t="s">
+      <c r="F1132" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G1132" s="18" t="n">
+      <c r="G1132" s="22" t="n">
         <v>1150004</v>
       </c>
       <c r="H1132" s="7"/>
@@ -40224,7 +40246,7 @@
       <c r="F1133" s="12" t="s">
         <v>2211</v>
       </c>
-      <c r="G1133" s="18" t="n">
+      <c r="G1133" s="22" t="n">
         <v>1150005</v>
       </c>
       <c r="H1133" s="7"/>
@@ -40252,7 +40274,7 @@
       <c r="F1134" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G1134" s="18" t="n">
+      <c r="G1134" s="22" t="n">
         <v>1150006</v>
       </c>
       <c r="H1134" s="7"/>
@@ -40280,7 +40302,7 @@
       <c r="F1135" s="12" t="s">
         <v>2214</v>
       </c>
-      <c r="G1135" s="18" t="n">
+      <c r="G1135" s="22" t="n">
         <v>1150007</v>
       </c>
       <c r="H1135" s="7"/>
@@ -40308,7 +40330,7 @@
       <c r="F1136" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="G1136" s="18" t="n">
+      <c r="G1136" s="22" t="n">
         <v>1150008</v>
       </c>
       <c r="H1136" s="7"/>
@@ -40336,7 +40358,7 @@
       <c r="F1137" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G1137" s="18" t="n">
+      <c r="G1137" s="22" t="n">
         <v>1150009</v>
       </c>
       <c r="H1137" s="7"/>
@@ -41654,7 +41676,7 @@
       <c r="F1184" s="12" t="s">
         <v>2280</v>
       </c>
-      <c r="G1184" s="18" t="n">
+      <c r="G1184" s="22" t="n">
         <v>1210001</v>
       </c>
       <c r="H1184" s="12"/>
@@ -41682,7 +41704,7 @@
       <c r="F1185" s="12" t="s">
         <v>2282</v>
       </c>
-      <c r="G1185" s="18" t="n">
+      <c r="G1185" s="22" t="n">
         <v>1210002</v>
       </c>
       <c r="H1185" s="12"/>
@@ -41710,7 +41732,7 @@
       <c r="F1186" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G1186" s="18" t="n">
+      <c r="G1186" s="22" t="n">
         <v>1210003</v>
       </c>
       <c r="H1186" s="7"/>
@@ -41738,7 +41760,7 @@
       <c r="F1187" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G1187" s="18" t="n">
+      <c r="G1187" s="22" t="n">
         <v>1210004</v>
       </c>
       <c r="H1187" s="7"/>
@@ -41766,7 +41788,7 @@
       <c r="F1188" s="12" t="s">
         <v>2286</v>
       </c>
-      <c r="G1188" s="18" t="n">
+      <c r="G1188" s="22" t="n">
         <v>1210005</v>
       </c>
       <c r="H1188" s="7"/>
@@ -41794,7 +41816,7 @@
       <c r="F1189" s="12" t="s">
         <v>2288</v>
       </c>
-      <c r="G1189" s="18" t="n">
+      <c r="G1189" s="22" t="n">
         <v>1210006</v>
       </c>
       <c r="H1189" s="7"/>
@@ -41822,7 +41844,7 @@
       <c r="F1190" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1190" s="18" t="n">
+      <c r="G1190" s="22" t="n">
         <v>1210007</v>
       </c>
       <c r="H1190" s="7"/>
@@ -41850,7 +41872,7 @@
       <c r="F1191" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="G1191" s="18" t="n">
+      <c r="G1191" s="22" t="n">
         <v>1210008</v>
       </c>
       <c r="H1191" s="7"/>
@@ -41878,7 +41900,7 @@
       <c r="F1192" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="G1192" s="18" t="n">
+      <c r="G1192" s="22" t="n">
         <v>1210009</v>
       </c>
       <c r="H1192" s="7"/>
@@ -41906,7 +41928,7 @@
       <c r="F1193" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="G1193" s="18" t="n">
+      <c r="G1193" s="22" t="n">
         <v>1210010</v>
       </c>
       <c r="H1193" s="7"/>
@@ -41934,7 +41956,7 @@
       <c r="F1194" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="G1194" s="18" t="n">
+      <c r="G1194" s="22" t="n">
         <v>1210011</v>
       </c>
       <c r="H1194" s="7"/>
@@ -41962,7 +41984,7 @@
       <c r="F1195" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="G1195" s="18" t="n">
+      <c r="G1195" s="22" t="n">
         <v>1210012</v>
       </c>
       <c r="H1195" s="7"/>
@@ -41990,7 +42012,7 @@
       <c r="F1196" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="G1196" s="18" t="n">
+      <c r="G1196" s="22" t="n">
         <v>1210013</v>
       </c>
       <c r="H1196" s="7"/>
@@ -42018,7 +42040,7 @@
       <c r="F1197" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="G1197" s="18" t="n">
+      <c r="G1197" s="22" t="n">
         <v>1210014</v>
       </c>
       <c r="H1197" s="7"/>
@@ -42031,7 +42053,7 @@
       <c r="A1198" s="5" t="s">
         <v>2297</v>
       </c>
-      <c r="B1198" s="29"/>
+      <c r="B1198" s="33"/>
       <c r="C1198" s="7"/>
       <c r="D1198" s="8"/>
       <c r="E1198" s="8"/>
@@ -42047,7 +42069,7 @@
       <c r="A1199" s="5" t="s">
         <v>2298</v>
       </c>
-      <c r="B1199" s="28" t="s">
+      <c r="B1199" s="32" t="s">
         <v>2299</v>
       </c>
       <c r="C1199" s="7" t="n">
@@ -42076,7 +42098,7 @@
       <c r="D1200" s="8"/>
       <c r="E1200" s="8"/>
       <c r="F1200" s="8"/>
-      <c r="G1200" s="17"/>
+      <c r="G1200" s="21"/>
       <c r="H1200" s="12"/>
       <c r="I1200" s="5"/>
       <c r="J1200" s="8"/>
@@ -42096,7 +42118,7 @@
       <c r="D1201" s="8"/>
       <c r="E1201" s="8"/>
       <c r="F1201" s="8"/>
-      <c r="G1201" s="17"/>
+      <c r="G1201" s="21"/>
       <c r="H1201" s="12"/>
       <c r="I1201" s="5"/>
       <c r="J1201" s="8"/>
@@ -42122,7 +42144,7 @@
       <c r="F1202" s="12" t="s">
         <v>2306</v>
       </c>
-      <c r="G1202" s="18" t="n">
+      <c r="G1202" s="22" t="n">
         <v>1240001</v>
       </c>
       <c r="H1202" s="12"/>
@@ -42150,7 +42172,7 @@
       <c r="F1203" s="12" t="s">
         <v>999</v>
       </c>
-      <c r="G1203" s="18" t="n">
+      <c r="G1203" s="22" t="n">
         <v>1240002</v>
       </c>
       <c r="H1203" s="12"/>
@@ -42178,7 +42200,7 @@
       <c r="F1204" s="12" t="s">
         <v>1441</v>
       </c>
-      <c r="G1204" s="18" t="n">
+      <c r="G1204" s="22" t="n">
         <v>1240003</v>
       </c>
       <c r="H1204" s="12"/>
@@ -42206,7 +42228,7 @@
       <c r="F1205" s="12" t="s">
         <v>2310</v>
       </c>
-      <c r="G1205" s="18" t="n">
+      <c r="G1205" s="22" t="n">
         <v>1240004</v>
       </c>
       <c r="H1205" s="12"/>
@@ -42234,7 +42256,7 @@
       <c r="F1206" s="12" t="s">
         <v>2312</v>
       </c>
-      <c r="G1206" s="18" t="n">
+      <c r="G1206" s="22" t="n">
         <v>1240005</v>
       </c>
       <c r="H1206" s="12"/>
@@ -42262,7 +42284,7 @@
       <c r="F1207" s="12" t="s">
         <v>2314</v>
       </c>
-      <c r="G1207" s="18" t="n">
+      <c r="G1207" s="22" t="n">
         <v>1240006</v>
       </c>
       <c r="H1207" s="12"/>
@@ -42284,7 +42306,7 @@
       <c r="D1208" s="8"/>
       <c r="E1208" s="8"/>
       <c r="F1208" s="8"/>
-      <c r="G1208" s="17"/>
+      <c r="G1208" s="21"/>
       <c r="H1208" s="12"/>
       <c r="I1208" s="5"/>
       <c r="J1208" s="8"/>
@@ -42307,10 +42329,10 @@
       <c r="E1209" s="8" t="n">
         <v>1250</v>
       </c>
-      <c r="F1209" s="30" t="s">
+      <c r="F1209" s="34" t="s">
         <v>2318</v>
       </c>
-      <c r="G1209" s="18" t="n">
+      <c r="G1209" s="22" t="n">
         <v>1250001</v>
       </c>
       <c r="H1209" s="12"/>
@@ -42335,10 +42357,10 @@
       <c r="E1210" s="8" t="n">
         <v>1250</v>
       </c>
-      <c r="F1210" s="30" t="s">
+      <c r="F1210" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G1210" s="18" t="n">
+      <c r="G1210" s="22" t="n">
         <v>1250002</v>
       </c>
       <c r="H1210" s="7"/>
@@ -42363,10 +42385,10 @@
       <c r="E1211" s="8" t="n">
         <v>1045</v>
       </c>
-      <c r="F1211" s="30" t="s">
+      <c r="F1211" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="G1211" s="18" t="n">
+      <c r="G1211" s="22" t="n">
         <v>1250003</v>
       </c>
       <c r="H1211" s="7"/>
@@ -42391,10 +42413,10 @@
       <c r="E1212" s="8" t="n">
         <v>1250</v>
       </c>
-      <c r="F1212" s="30" t="s">
+      <c r="F1212" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="G1212" s="18" t="n">
+      <c r="G1212" s="22" t="n">
         <v>1250004</v>
       </c>
       <c r="H1212" s="7"/>
@@ -42419,10 +42441,10 @@
       <c r="E1213" s="8" t="n">
         <v>1250</v>
       </c>
-      <c r="F1213" s="30" t="s">
+      <c r="F1213" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="G1213" s="18" t="n">
+      <c r="G1213" s="22" t="n">
         <v>1250005</v>
       </c>
       <c r="H1213" s="7"/>
@@ -42447,10 +42469,10 @@
       <c r="E1214" s="8" t="n">
         <v>1250</v>
       </c>
-      <c r="F1214" s="30" t="s">
+      <c r="F1214" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="G1214" s="18" t="n">
+      <c r="G1214" s="22" t="n">
         <v>1250006</v>
       </c>
       <c r="H1214" s="7"/>
@@ -42475,10 +42497,10 @@
       <c r="E1215" s="8" t="n">
         <v>1250</v>
       </c>
-      <c r="F1215" s="30" t="s">
+      <c r="F1215" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="G1215" s="18" t="n">
+      <c r="G1215" s="22" t="n">
         <v>1250007</v>
       </c>
       <c r="H1215" s="7"/>
@@ -42503,10 +42525,10 @@
       <c r="E1216" s="8" t="n">
         <v>1250</v>
       </c>
-      <c r="F1216" s="30" t="s">
+      <c r="F1216" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="G1216" s="18" t="n">
+      <c r="G1216" s="22" t="n">
         <v>1250008</v>
       </c>
       <c r="H1216" s="7"/>
@@ -42531,10 +42553,10 @@
       <c r="E1217" s="8" t="n">
         <v>1250</v>
       </c>
-      <c r="F1217" s="30" t="s">
+      <c r="F1217" s="34" t="s">
         <v>631</v>
       </c>
-      <c r="G1217" s="18" t="n">
+      <c r="G1217" s="22" t="n">
         <v>1250009</v>
       </c>
       <c r="H1217" s="7"/>
@@ -42883,10 +42905,10 @@
       <c r="E1234" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1234" s="30" t="s">
+      <c r="F1234" s="34" t="s">
         <v>2357</v>
       </c>
-      <c r="G1234" s="31" t="n">
+      <c r="G1234" s="35" t="n">
         <v>1270001</v>
       </c>
       <c r="H1234" s="7"/>
@@ -42911,10 +42933,10 @@
       <c r="E1235" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1235" s="30" t="s">
+      <c r="F1235" s="34" t="s">
         <v>1033</v>
       </c>
-      <c r="G1235" s="31" t="n">
+      <c r="G1235" s="35" t="n">
         <v>1270002</v>
       </c>
       <c r="H1235" s="7"/>
@@ -42939,10 +42961,10 @@
       <c r="E1236" s="8" t="n">
         <v>1280</v>
       </c>
-      <c r="F1236" s="30" t="s">
+      <c r="F1236" s="34" t="s">
         <v>1035</v>
       </c>
-      <c r="G1236" s="31" t="n">
+      <c r="G1236" s="35" t="n">
         <v>1270003</v>
       </c>
       <c r="H1236" s="7"/>
@@ -42967,10 +42989,10 @@
       <c r="E1237" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1237" s="30" t="s">
+      <c r="F1237" s="34" t="s">
         <v>2361</v>
       </c>
-      <c r="G1237" s="31" t="n">
+      <c r="G1237" s="35" t="n">
         <v>1270004</v>
       </c>
       <c r="H1237" s="7"/>
@@ -42995,17 +43017,17 @@
       <c r="E1238" s="8" t="n">
         <v>210</v>
       </c>
-      <c r="F1238" s="30" t="s">
+      <c r="F1238" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G1238" s="31" t="n">
+      <c r="G1238" s="35" t="n">
         <v>1270005</v>
       </c>
       <c r="H1238" s="7"/>
       <c r="I1238" s="5"/>
       <c r="J1238" s="8"/>
       <c r="K1238" s="7"/>
-      <c r="L1238" s="19"/>
+      <c r="L1238" s="23"/>
     </row>
     <row r="1239" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1239" s="5" t="s">
@@ -43023,10 +43045,10 @@
       <c r="E1239" s="8" t="n">
         <v>1220</v>
       </c>
-      <c r="F1239" s="30" t="s">
+      <c r="F1239" s="34" t="s">
         <v>1721</v>
       </c>
-      <c r="G1239" s="31" t="n">
+      <c r="G1239" s="35" t="n">
         <v>1270006</v>
       </c>
       <c r="H1239" s="7"/>
@@ -43051,10 +43073,10 @@
       <c r="E1240" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1240" s="30" t="s">
+      <c r="F1240" s="34" t="s">
         <v>1718</v>
       </c>
-      <c r="G1240" s="31" t="n">
+      <c r="G1240" s="35" t="n">
         <v>1270007</v>
       </c>
       <c r="H1240" s="7"/>
@@ -43079,10 +43101,10 @@
       <c r="E1241" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1241" s="30" t="s">
+      <c r="F1241" s="34" t="s">
         <v>2366</v>
       </c>
-      <c r="G1241" s="31" t="n">
+      <c r="G1241" s="35" t="n">
         <v>1270008</v>
       </c>
       <c r="H1241" s="7"/>
@@ -43107,10 +43129,10 @@
       <c r="E1242" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1242" s="30" t="s">
+      <c r="F1242" s="34" t="s">
         <v>2368</v>
       </c>
-      <c r="G1242" s="31" t="n">
+      <c r="G1242" s="35" t="n">
         <v>1270009</v>
       </c>
       <c r="H1242" s="7"/>
@@ -43135,10 +43157,10 @@
       <c r="E1243" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1243" s="30" t="s">
+      <c r="F1243" s="34" t="s">
         <v>2370</v>
       </c>
-      <c r="G1243" s="31" t="n">
+      <c r="G1243" s="35" t="n">
         <v>1270010</v>
       </c>
       <c r="H1243" s="7"/>
@@ -43163,10 +43185,10 @@
       <c r="E1244" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1244" s="30" t="s">
+      <c r="F1244" s="34" t="s">
         <v>2372</v>
       </c>
-      <c r="G1244" s="31" t="n">
+      <c r="G1244" s="35" t="n">
         <v>1270011</v>
       </c>
       <c r="H1244" s="7"/>
@@ -43191,10 +43213,10 @@
       <c r="E1245" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1245" s="30" t="s">
+      <c r="F1245" s="34" t="s">
         <v>2374</v>
       </c>
-      <c r="G1245" s="31" t="n">
+      <c r="G1245" s="35" t="n">
         <v>1270012</v>
       </c>
       <c r="H1245" s="7"/>
@@ -43219,10 +43241,10 @@
       <c r="E1246" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1246" s="30" t="s">
+      <c r="F1246" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="G1246" s="31" t="n">
+      <c r="G1246" s="35" t="n">
         <v>1270013</v>
       </c>
       <c r="H1246" s="7"/>
@@ -43247,10 +43269,10 @@
       <c r="E1247" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1247" s="30" t="s">
+      <c r="F1247" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="G1247" s="31" t="n">
+      <c r="G1247" s="35" t="n">
         <v>1270014</v>
       </c>
       <c r="H1247" s="7"/>
@@ -43275,10 +43297,10 @@
       <c r="E1248" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1248" s="30" t="s">
+      <c r="F1248" s="34" t="s">
         <v>2378</v>
       </c>
-      <c r="G1248" s="31" t="n">
+      <c r="G1248" s="35" t="n">
         <v>1270015</v>
       </c>
       <c r="H1248" s="7"/>
@@ -43303,10 +43325,10 @@
       <c r="E1249" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1249" s="30" t="s">
+      <c r="F1249" s="34" t="s">
         <v>2380</v>
       </c>
-      <c r="G1249" s="31" t="n">
+      <c r="G1249" s="35" t="n">
         <v>1270016</v>
       </c>
       <c r="H1249" s="7"/>
@@ -43331,10 +43353,10 @@
       <c r="E1250" s="8" t="n">
         <v>1270</v>
       </c>
-      <c r="F1250" s="30" t="s">
+      <c r="F1250" s="34" t="s">
         <v>911</v>
       </c>
-      <c r="G1250" s="31" t="n">
+      <c r="G1250" s="35" t="n">
         <v>1270017</v>
       </c>
       <c r="H1250" s="7"/>
@@ -43359,10 +43381,10 @@
       <c r="E1251" s="8" t="n">
         <v>1045</v>
       </c>
-      <c r="F1251" s="30" t="s">
+      <c r="F1251" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="G1251" s="31" t="n">
+      <c r="G1251" s="35" t="n">
         <v>1270018</v>
       </c>
       <c r="H1251" s="7"/>
@@ -43387,10 +43409,10 @@
       <c r="E1252" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F1252" s="30" t="s">
+      <c r="F1252" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="G1252" s="31" t="n">
+      <c r="G1252" s="35" t="n">
         <v>1270019</v>
       </c>
       <c r="H1252" s="7"/>
@@ -44503,10 +44525,10 @@
       <c r="E1293" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1293" s="30" t="s">
+      <c r="F1293" s="34" t="s">
         <v>2434</v>
       </c>
-      <c r="G1293" s="31" t="n">
+      <c r="G1293" s="35" t="n">
         <v>1290001</v>
       </c>
       <c r="H1293" s="7"/>
@@ -44531,10 +44553,10 @@
       <c r="E1294" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1294" s="30" t="s">
+      <c r="F1294" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="G1294" s="31" t="n">
+      <c r="G1294" s="35" t="n">
         <v>1290002</v>
       </c>
       <c r="H1294" s="7"/>
@@ -44559,10 +44581,10 @@
       <c r="E1295" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F1295" s="30" t="s">
+      <c r="F1295" s="34" t="s">
         <v>2437</v>
       </c>
-      <c r="G1295" s="31" t="n">
+      <c r="G1295" s="35" t="n">
         <v>1290003</v>
       </c>
       <c r="H1295" s="7"/>
@@ -44587,10 +44609,10 @@
       <c r="E1296" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F1296" s="30" t="s">
+      <c r="F1296" s="34" t="s">
         <v>2439</v>
       </c>
-      <c r="G1296" s="31" t="n">
+      <c r="G1296" s="35" t="n">
         <v>1290004</v>
       </c>
       <c r="H1296" s="7"/>
@@ -44614,10 +44636,10 @@
       <c r="E1297" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1297" s="30" t="s">
+      <c r="F1297" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="G1297" s="31" t="n">
+      <c r="G1297" s="35" t="n">
         <v>1290005</v>
       </c>
       <c r="H1297" s="7"/>
@@ -44642,10 +44664,10 @@
       <c r="E1298" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F1298" s="30" t="s">
+      <c r="F1298" s="34" t="s">
         <v>406</v>
       </c>
-      <c r="G1298" s="31" t="n">
+      <c r="G1298" s="35" t="n">
         <v>1290006</v>
       </c>
       <c r="H1298" s="7"/>
@@ -44672,10 +44694,10 @@
       <c r="E1299" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F1299" s="30" t="s">
+      <c r="F1299" s="34" t="s">
         <v>556</v>
       </c>
-      <c r="G1299" s="31" t="n">
+      <c r="G1299" s="35" t="n">
         <v>1290007</v>
       </c>
       <c r="H1299" s="7"/>
@@ -44702,10 +44724,10 @@
       <c r="E1300" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F1300" s="30" t="s">
+      <c r="F1300" s="34" t="s">
         <v>563</v>
       </c>
-      <c r="G1300" s="31" t="n">
+      <c r="G1300" s="35" t="n">
         <v>1290008</v>
       </c>
       <c r="H1300" s="7"/>
@@ -44732,10 +44754,10 @@
       <c r="E1301" s="8" t="n">
         <v>130</v>
       </c>
-      <c r="F1301" s="30" t="s">
+      <c r="F1301" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="G1301" s="31" t="n">
+      <c r="G1301" s="35" t="n">
         <v>1290009</v>
       </c>
       <c r="H1301" s="7"/>
@@ -44762,17 +44784,17 @@
       <c r="E1302" s="8" t="n">
         <v>210</v>
       </c>
-      <c r="F1302" s="30" t="s">
+      <c r="F1302" s="34" t="s">
         <v>2446</v>
       </c>
-      <c r="G1302" s="31" t="n">
+      <c r="G1302" s="35" t="n">
         <v>1290010</v>
       </c>
       <c r="H1302" s="7"/>
       <c r="I1302" s="5"/>
       <c r="J1302" s="8"/>
       <c r="K1302" s="7"/>
-      <c r="L1302" s="19" t="s">
+      <c r="L1302" s="23" t="s">
         <v>2447</v>
       </c>
     </row>
@@ -44792,10 +44814,10 @@
       <c r="E1303" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1303" s="30" t="s">
+      <c r="F1303" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="G1303" s="31" t="n">
+      <c r="G1303" s="35" t="n">
         <v>1290011</v>
       </c>
       <c r="H1303" s="7"/>
@@ -44820,10 +44842,10 @@
       <c r="E1304" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1304" s="30" t="s">
+      <c r="F1304" s="34" t="s">
         <v>581</v>
       </c>
-      <c r="G1304" s="31" t="n">
+      <c r="G1304" s="35" t="n">
         <v>1290012</v>
       </c>
       <c r="H1304" s="7"/>
@@ -44848,10 +44870,10 @@
       <c r="E1305" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1305" s="30" t="s">
+      <c r="F1305" s="34" t="s">
         <v>2451</v>
       </c>
-      <c r="G1305" s="31" t="n">
+      <c r="G1305" s="35" t="n">
         <v>1290013</v>
       </c>
       <c r="H1305" s="7"/>
@@ -44876,10 +44898,10 @@
       <c r="E1306" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1306" s="30" t="s">
+      <c r="F1306" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="G1306" s="31" t="n">
+      <c r="G1306" s="35" t="n">
         <v>1290014</v>
       </c>
       <c r="H1306" s="7"/>
@@ -44904,10 +44926,10 @@
       <c r="E1307" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1307" s="30" t="s">
+      <c r="F1307" s="34" t="s">
         <v>589</v>
       </c>
-      <c r="G1307" s="31" t="n">
+      <c r="G1307" s="35" t="n">
         <v>1290015</v>
       </c>
       <c r="H1307" s="7"/>
@@ -44932,10 +44954,10 @@
       <c r="E1308" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1308" s="30" t="s">
+      <c r="F1308" s="34" t="s">
         <v>593</v>
       </c>
-      <c r="G1308" s="31" t="n">
+      <c r="G1308" s="35" t="n">
         <v>1290016</v>
       </c>
       <c r="H1308" s="7"/>
@@ -44960,10 +44982,10 @@
       <c r="E1309" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1309" s="30" t="s">
+      <c r="F1309" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="G1309" s="31" t="n">
+      <c r="G1309" s="35" t="n">
         <v>1290017</v>
       </c>
       <c r="H1309" s="7"/>
@@ -44988,10 +45010,10 @@
       <c r="E1310" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1310" s="30" t="s">
+      <c r="F1310" s="34" t="s">
         <v>604</v>
       </c>
-      <c r="G1310" s="31" t="n">
+      <c r="G1310" s="35" t="n">
         <v>1290018</v>
       </c>
       <c r="H1310" s="7"/>
@@ -45016,10 +45038,10 @@
       <c r="E1311" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1311" s="30" t="s">
+      <c r="F1311" s="34" t="s">
         <v>607</v>
       </c>
-      <c r="G1311" s="31" t="n">
+      <c r="G1311" s="35" t="n">
         <v>1290019</v>
       </c>
       <c r="H1311" s="7"/>
@@ -45044,10 +45066,10 @@
       <c r="E1312" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="F1312" s="30" t="s">
+      <c r="F1312" s="34" t="s">
         <v>2459</v>
       </c>
-      <c r="G1312" s="31" t="n">
+      <c r="G1312" s="35" t="n">
         <v>1290020</v>
       </c>
       <c r="H1312" s="7"/>
@@ -45074,10 +45096,10 @@
       <c r="E1313" s="8" t="n">
         <v>1045</v>
       </c>
-      <c r="F1313" s="30" t="s">
+      <c r="F1313" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="G1313" s="31" t="n">
+      <c r="G1313" s="35" t="n">
         <v>1290021</v>
       </c>
       <c r="H1313" s="7"/>
@@ -45102,10 +45124,10 @@
       <c r="E1314" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1314" s="30" t="s">
+      <c r="F1314" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="G1314" s="31" t="n">
+      <c r="G1314" s="35" t="n">
         <v>1290022</v>
       </c>
       <c r="H1314" s="7"/>
@@ -45130,10 +45152,10 @@
       <c r="E1315" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1315" s="30" t="s">
+      <c r="F1315" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="G1315" s="31" t="n">
+      <c r="G1315" s="35" t="n">
         <v>1290023</v>
       </c>
       <c r="H1315" s="7"/>
@@ -45158,10 +45180,10 @@
       <c r="E1316" s="8" t="n">
         <v>1250</v>
       </c>
-      <c r="F1316" s="30" t="s">
+      <c r="F1316" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="G1316" s="31" t="n">
+      <c r="G1316" s="35" t="n">
         <v>1290024</v>
       </c>
       <c r="H1316" s="7"/>
@@ -45186,10 +45208,10 @@
       <c r="E1317" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1317" s="30" t="s">
+      <c r="F1317" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="G1317" s="31" t="n">
+      <c r="G1317" s="35" t="n">
         <v>1290025</v>
       </c>
       <c r="H1317" s="7"/>
@@ -45214,10 +45236,10 @@
       <c r="E1318" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1318" s="30" t="s">
+      <c r="F1318" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="G1318" s="31" t="n">
+      <c r="G1318" s="35" t="n">
         <v>1290026</v>
       </c>
       <c r="H1318" s="7"/>
@@ -45242,10 +45264,10 @@
       <c r="E1319" s="8" t="n">
         <v>1290</v>
       </c>
-      <c r="F1319" s="30" t="s">
+      <c r="F1319" s="34" t="s">
         <v>631</v>
       </c>
-      <c r="G1319" s="31" t="n">
+      <c r="G1319" s="35" t="n">
         <v>1290027</v>
       </c>
       <c r="H1319" s="7"/>
@@ -45258,7 +45280,7 @@
       <c r="A1320" s="5" t="s">
         <v>2468</v>
       </c>
-      <c r="B1320" s="16" t="s">
+      <c r="B1320" s="20" t="s">
         <v>2469</v>
       </c>
       <c r="C1320" s="8" t="n">
@@ -45267,7 +45289,7 @@
       <c r="D1320" s="8"/>
       <c r="E1320" s="8"/>
       <c r="F1320" s="8"/>
-      <c r="G1320" s="17"/>
+      <c r="G1320" s="21"/>
       <c r="H1320" s="12"/>
       <c r="I1320" s="5"/>
       <c r="J1320" s="8"/>
@@ -45298,7 +45320,7 @@
       <c r="A1322" s="5" t="s">
         <v>2472</v>
       </c>
-      <c r="B1322" s="16" t="s">
+      <c r="B1322" s="20" t="s">
         <v>2473</v>
       </c>
       <c r="C1322" s="8" t="n">
@@ -45307,7 +45329,7 @@
       <c r="D1322" s="8"/>
       <c r="E1322" s="8"/>
       <c r="F1322" s="8"/>
-      <c r="G1322" s="17"/>
+      <c r="G1322" s="21"/>
       <c r="H1322" s="12"/>
       <c r="I1322" s="5"/>
       <c r="J1322" s="8"/>
@@ -45318,7 +45340,7 @@
       <c r="A1323" s="5" t="s">
         <v>2474</v>
       </c>
-      <c r="B1323" s="16" t="s">
+      <c r="B1323" s="20" t="s">
         <v>2475</v>
       </c>
       <c r="C1323" s="8" t="n">
@@ -45327,7 +45349,7 @@
       <c r="D1323" s="8"/>
       <c r="E1323" s="8"/>
       <c r="F1323" s="8"/>
-      <c r="G1323" s="17"/>
+      <c r="G1323" s="21"/>
       <c r="H1323" s="12"/>
       <c r="I1323" s="5"/>
       <c r="J1323" s="8"/>
@@ -45338,7 +45360,7 @@
       <c r="A1324" s="5" t="s">
         <v>2476</v>
       </c>
-      <c r="B1324" s="28" t="s">
+      <c r="B1324" s="32" t="s">
         <v>2477</v>
       </c>
       <c r="C1324" s="7" t="n">

--- a/managementcmdfiles/columns.xlsx
+++ b/managementcmdfiles/columns.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5322" uniqueCount="2127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="2127">
   <si>
     <t xml:space="preserve">Column ID</t>
   </si>
@@ -6643,9 +6643,9 @@
   <dimension ref="A1:K1326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B76" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B335" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L76" activeCellId="0" sqref="L76"/>
+      <selection pane="bottomLeft" activeCell="J343" activeCellId="0" sqref="J343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16073,9 +16073,15 @@
       <c r="G343" s="19" t="n">
         <v>480001</v>
       </c>
-      <c r="H343" s="10"/>
-      <c r="I343" s="4"/>
-      <c r="J343" s="7"/>
+      <c r="H343" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I343" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J343" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="K343" s="6"/>
     </row>
     <row r="344" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16100,9 +16106,15 @@
       <c r="G344" s="19" t="n">
         <v>480002</v>
       </c>
-      <c r="H344" s="10"/>
-      <c r="I344" s="4"/>
-      <c r="J344" s="7"/>
+      <c r="H344" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I344" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J344" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="K344" s="6"/>
     </row>
     <row r="345" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16127,9 +16139,15 @@
       <c r="G345" s="19" t="n">
         <v>480003</v>
       </c>
-      <c r="H345" s="10"/>
-      <c r="I345" s="4"/>
-      <c r="J345" s="7"/>
+      <c r="H345" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="I345" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J345" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="K345" s="6"/>
     </row>
     <row r="346" customFormat="false" ht="20.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
